--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1505">
   <si>
     <t>Row</t>
   </si>
@@ -1339,6 +1339,2838 @@
   </si>
   <si>
     <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
   </si>
   <si>
     <t>Time trend</t>
@@ -1716,7 +4548,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1729,17 +4561,33 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1761,24 +4609,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>443</v>
+        <v>1387</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>498</v>
+        <v>1442</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>499</v>
+        <v>1443</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>500</v>
+        <v>1444</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>506</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>444</v>
+        <v>1388</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
@@ -1787,15 +4635,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>501</v>
+        <v>1445</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>507</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>445</v>
+        <v>1389</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
@@ -1804,15 +4652,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>501</v>
+        <v>1445</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>508</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>446</v>
+        <v>1390</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
@@ -1821,15 +4669,15 @@
         <v>2.960594732333751e-14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>501</v>
+        <v>1445</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>509</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>447</v>
+        <v>1391</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
@@ -1838,15 +4686,15 @@
         <v>3.7007434154171883e-14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>501</v>
+        <v>1445</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>510</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>448</v>
+        <v>1392</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
@@ -1855,15 +4703,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>501</v>
+        <v>1445</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>511</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>449</v>
+        <v>1393</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -1872,15 +4720,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>512</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>450</v>
+        <v>1394</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
@@ -1889,15 +4737,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>513</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>451</v>
+        <v>1395</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
@@ -1906,15 +4754,15 @@
         <v>1.0136552464388315</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>514</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>452</v>
+        <v>1396</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -1923,15 +4771,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>515</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>453</v>
+        <v>1397</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
@@ -1940,15 +4788,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>516</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>454</v>
+        <v>1398</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -1957,15 +4805,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>517</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>455</v>
+        <v>1399</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
@@ -1974,15 +4822,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>518</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>456</v>
+        <v>1400</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -1991,15 +4839,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>519</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>457</v>
+        <v>1401</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
@@ -2008,15 +4856,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>520</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>458</v>
+        <v>1402</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
@@ -2025,15 +4873,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>521</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>459</v>
+        <v>1403</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
@@ -2042,15 +4890,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>502</v>
+        <v>1446</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>522</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>460</v>
+        <v>1404</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -2059,15 +4907,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>503</v>
+        <v>1447</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>523</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>461</v>
+        <v>1405</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
@@ -2076,15 +4924,15 @@
         <v>1.0136552464388342</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>504</v>
+        <v>1448</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>524</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>462</v>
+        <v>1406</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
@@ -2093,15 +4941,15 @@
         <v>1.0136552464388313</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>504</v>
+        <v>1448</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>525</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>463</v>
+        <v>1407</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
@@ -2110,15 +4958,15 @@
         <v>0.98652870738172072</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>504</v>
+        <v>1448</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>526</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>464</v>
+        <v>1408</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
@@ -2127,15 +4975,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>504</v>
+        <v>1448</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>527</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>465</v>
+        <v>1409</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
@@ -2144,15 +4992,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>504</v>
+        <v>1448</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>528</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>466</v>
+        <v>1410</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
@@ -2161,15 +5009,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>504</v>
+        <v>1448</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>529</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>467</v>
+        <v>1411</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
@@ -2178,15 +5026,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>504</v>
+        <v>1448</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>530</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>468</v>
+        <v>1412</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -2195,15 +5043,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>531</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>469</v>
+        <v>1413</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -2212,15 +5060,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>532</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>470</v>
+        <v>1414</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -2229,15 +5077,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>533</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>471</v>
+        <v>1415</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -2246,15 +5094,15 @@
         <v>0</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>534</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>472</v>
+        <v>1416</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -2263,15 +5111,15 @@
         <v>0</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>535</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>473</v>
+        <v>1417</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -2280,15 +5128,15 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>536</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>474</v>
+        <v>1418</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -2297,15 +5145,15 @@
         <v>0</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>537</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>475</v>
+        <v>1419</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -2314,15 +5162,15 @@
         <v>0</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>538</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>476</v>
+        <v>1420</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
@@ -2331,15 +5179,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>539</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>477</v>
+        <v>1421</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
@@ -2348,15 +5196,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>540</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>478</v>
+        <v>1422</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
@@ -2365,15 +5213,15 @@
         <v>0</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>541</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>479</v>
+        <v>1423</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
@@ -2382,15 +5230,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>542</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>480</v>
+        <v>1424</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
@@ -2399,15 +5247,15 @@
         <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>543</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>481</v>
+        <v>1425</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
@@ -2416,15 +5264,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>544</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>482</v>
+        <v>1426</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
@@ -2433,15 +5281,15 @@
         <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>545</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>483</v>
+        <v>1427</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
@@ -2450,15 +5298,15 @@
         <v>0</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>546</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>484</v>
+        <v>1428</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
@@ -2467,15 +5315,15 @@
         <v>0</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>547</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>485</v>
+        <v>1429</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
@@ -2484,15 +5332,15 @@
         <v>0</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>548</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>486</v>
+        <v>1430</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
@@ -2501,15 +5349,15 @@
         <v>0</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>549</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>487</v>
+        <v>1431</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
@@ -2518,15 +5366,15 @@
         <v>0</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>550</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>488</v>
+        <v>1432</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
@@ -2535,15 +5383,15 @@
         <v>0</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>551</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>489</v>
+        <v>1433</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
@@ -2552,15 +5400,15 @@
         <v>0</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>552</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>490</v>
+        <v>1434</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -2569,15 +5417,15 @@
         <v>0</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>553</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>491</v>
+        <v>1435</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
@@ -2586,15 +5434,15 @@
         <v>0</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>554</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>492</v>
+        <v>1436</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -2603,15 +5451,15 @@
         <v>0</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>555</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>493</v>
+        <v>1437</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -2620,15 +5468,15 @@
         <v>0</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>556</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>494</v>
+        <v>1438</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -2637,15 +5485,15 @@
         <v>0</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>557</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>495</v>
+        <v>1439</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -2654,15 +5502,15 @@
         <v>0</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>558</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>496</v>
+        <v>1440</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -2671,15 +5519,15 @@
         <v>0</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>559</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>497</v>
+        <v>1441</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -2688,10 +5536,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>505</v>
+        <v>1449</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>560</v>
+        <v>1504</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="1859">
   <si>
     <t>Row</t>
   </si>
@@ -1339,6 +1339,1068 @@
   </si>
   <si>
     <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
   </si>
   <si>
     <t>Time trend</t>
@@ -4548,7 +5610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -4569,11 +5631,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -4588,6 +5653,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4609,24 +5677,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1387</v>
+        <v>1741</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1442</v>
+        <v>1796</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1443</v>
+        <v>1797</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1444</v>
+        <v>1798</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1450</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1388</v>
+        <v>1742</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
@@ -4635,15 +5703,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1445</v>
+        <v>1799</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1451</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1389</v>
+        <v>1743</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
@@ -4652,15 +5720,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1445</v>
+        <v>1799</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1452</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1390</v>
+        <v>1744</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
@@ -4669,15 +5737,15 @@
         <v>2.960594732333751e-14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1445</v>
+        <v>1799</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1453</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1391</v>
+        <v>1745</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
@@ -4686,15 +5754,15 @@
         <v>3.7007434154171883e-14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1445</v>
+        <v>1799</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1454</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1392</v>
+        <v>1746</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
@@ -4703,15 +5771,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1445</v>
+        <v>1799</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1455</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1393</v>
+        <v>1747</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -4720,15 +5788,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1456</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1394</v>
+        <v>1748</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
@@ -4737,15 +5805,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1457</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1395</v>
+        <v>1749</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
@@ -4754,15 +5822,15 @@
         <v>1.0136552464388315</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1458</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1396</v>
+        <v>1750</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -4771,15 +5839,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1459</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1397</v>
+        <v>1751</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
@@ -4788,15 +5856,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1460</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1398</v>
+        <v>1752</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -4805,15 +5873,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1461</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1399</v>
+        <v>1753</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
@@ -4822,15 +5890,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1462</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1400</v>
+        <v>1754</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -4839,15 +5907,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1463</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1401</v>
+        <v>1755</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
@@ -4856,15 +5924,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1464</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1402</v>
+        <v>1756</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
@@ -4873,15 +5941,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1465</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1403</v>
+        <v>1757</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
@@ -4890,15 +5958,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1466</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1404</v>
+        <v>1758</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -4907,15 +5975,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1447</v>
+        <v>1801</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1467</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1405</v>
+        <v>1759</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
@@ -4924,15 +5992,15 @@
         <v>1.0136552464388342</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1448</v>
+        <v>1802</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1468</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1406</v>
+        <v>1760</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
@@ -4941,15 +6009,15 @@
         <v>1.0136552464388313</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1448</v>
+        <v>1802</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1469</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1407</v>
+        <v>1761</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
@@ -4958,15 +6026,15 @@
         <v>0.98652870738172072</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1448</v>
+        <v>1802</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1470</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1408</v>
+        <v>1762</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
@@ -4975,15 +6043,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1448</v>
+        <v>1802</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1471</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1409</v>
+        <v>1763</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
@@ -4992,15 +6060,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1448</v>
+        <v>1802</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1472</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1410</v>
+        <v>1764</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
@@ -5009,15 +6077,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1448</v>
+        <v>1802</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1473</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1411</v>
+        <v>1765</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
@@ -5026,15 +6094,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1448</v>
+        <v>1802</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1474</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1412</v>
+        <v>1766</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5042,16 +6110,14 @@
       <c r="C26" s="0">
         <v>0</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D26" s="0"/>
       <c r="E26" s="0" t="s">
-        <v>1475</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1413</v>
+        <v>1767</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5059,16 +6125,14 @@
       <c r="C27" s="0">
         <v>0</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D27" s="0"/>
       <c r="E27" s="0" t="s">
-        <v>1476</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1414</v>
+        <v>1768</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -5076,16 +6140,14 @@
       <c r="C28" s="0">
         <v>0</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D28" s="0"/>
       <c r="E28" s="0" t="s">
-        <v>1477</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1415</v>
+        <v>1769</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5093,16 +6155,14 @@
       <c r="C29" s="0">
         <v>0</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D29" s="0"/>
       <c r="E29" s="0" t="s">
-        <v>1478</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1416</v>
+        <v>1770</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -5110,16 +6170,14 @@
       <c r="C30" s="0">
         <v>0</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D30" s="0"/>
       <c r="E30" s="0" t="s">
-        <v>1479</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1417</v>
+        <v>1771</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -5127,16 +6185,14 @@
       <c r="C31" s="0">
         <v>0</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D31" s="0"/>
       <c r="E31" s="0" t="s">
-        <v>1480</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1418</v>
+        <v>1772</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -5144,16 +6200,14 @@
       <c r="C32" s="0">
         <v>0</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
-        <v>1481</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1419</v>
+        <v>1773</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -5161,16 +6215,14 @@
       <c r="C33" s="0">
         <v>0</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D33" s="0"/>
       <c r="E33" s="0" t="s">
-        <v>1482</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1420</v>
+        <v>1774</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
@@ -5178,16 +6230,14 @@
       <c r="C34" s="0">
         <v>0</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D34" s="0"/>
       <c r="E34" s="0" t="s">
-        <v>1483</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1421</v>
+        <v>1775</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
@@ -5195,16 +6245,14 @@
       <c r="C35" s="0">
         <v>0</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D35" s="0"/>
       <c r="E35" s="0" t="s">
-        <v>1484</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1422</v>
+        <v>1776</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
@@ -5212,16 +6260,14 @@
       <c r="C36" s="0">
         <v>0</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D36" s="0"/>
       <c r="E36" s="0" t="s">
-        <v>1485</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1423</v>
+        <v>1777</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
@@ -5229,16 +6275,14 @@
       <c r="C37" s="0">
         <v>0</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D37" s="0"/>
       <c r="E37" s="0" t="s">
-        <v>1486</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1424</v>
+        <v>1778</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
@@ -5246,16 +6290,14 @@
       <c r="C38" s="0">
         <v>0</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D38" s="0"/>
       <c r="E38" s="0" t="s">
-        <v>1487</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1425</v>
+        <v>1779</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
@@ -5263,16 +6305,14 @@
       <c r="C39" s="0">
         <v>0</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D39" s="0"/>
       <c r="E39" s="0" t="s">
-        <v>1488</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1426</v>
+        <v>1780</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
@@ -5280,16 +6320,14 @@
       <c r="C40" s="0">
         <v>0</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D40" s="0"/>
       <c r="E40" s="0" t="s">
-        <v>1489</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1427</v>
+        <v>1781</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
@@ -5297,16 +6335,14 @@
       <c r="C41" s="0">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D41" s="0"/>
       <c r="E41" s="0" t="s">
-        <v>1490</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1428</v>
+        <v>1782</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
@@ -5314,16 +6350,14 @@
       <c r="C42" s="0">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D42" s="0"/>
       <c r="E42" s="0" t="s">
-        <v>1491</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1429</v>
+        <v>1783</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
@@ -5331,16 +6365,14 @@
       <c r="C43" s="0">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D43" s="0"/>
       <c r="E43" s="0" t="s">
-        <v>1492</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1430</v>
+        <v>1784</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
@@ -5348,16 +6380,14 @@
       <c r="C44" s="0">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D44" s="0"/>
       <c r="E44" s="0" t="s">
-        <v>1493</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1431</v>
+        <v>1785</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
@@ -5365,16 +6395,14 @@
       <c r="C45" s="0">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D45" s="0"/>
       <c r="E45" s="0" t="s">
-        <v>1494</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1432</v>
+        <v>1786</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
@@ -5382,16 +6410,14 @@
       <c r="C46" s="0">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D46" s="0"/>
       <c r="E46" s="0" t="s">
-        <v>1495</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1433</v>
+        <v>1787</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
@@ -5399,16 +6425,14 @@
       <c r="C47" s="0">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D47" s="0"/>
       <c r="E47" s="0" t="s">
-        <v>1496</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1434</v>
+        <v>1788</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -5416,16 +6440,14 @@
       <c r="C48" s="0">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D48" s="0"/>
       <c r="E48" s="0" t="s">
-        <v>1497</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>1435</v>
+        <v>1789</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
@@ -5433,16 +6455,14 @@
       <c r="C49" s="0">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D49" s="0"/>
       <c r="E49" s="0" t="s">
-        <v>1498</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>1436</v>
+        <v>1790</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -5450,16 +6470,14 @@
       <c r="C50" s="0">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D50" s="0"/>
       <c r="E50" s="0" t="s">
-        <v>1499</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>1437</v>
+        <v>1791</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -5467,16 +6485,14 @@
       <c r="C51" s="0">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D51" s="0"/>
       <c r="E51" s="0" t="s">
-        <v>1500</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>1438</v>
+        <v>1792</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -5484,16 +6500,14 @@
       <c r="C52" s="0">
         <v>0</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D52" s="0"/>
       <c r="E52" s="0" t="s">
-        <v>1501</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>1439</v>
+        <v>1793</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -5501,16 +6515,14 @@
       <c r="C53" s="0">
         <v>0</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D53" s="0"/>
       <c r="E53" s="0" t="s">
-        <v>1502</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>1440</v>
+        <v>1794</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -5518,16 +6530,14 @@
       <c r="C54" s="0">
         <v>0</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>1449</v>
-      </c>
+      <c r="D54" s="0"/>
       <c r="E54" s="0" t="s">
-        <v>1503</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>1441</v>
+        <v>1795</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -5536,10 +6546,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1449</v>
+        <v>1803</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1504</v>
+        <v>1858</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1977">
   <si>
     <t>Row</t>
   </si>
@@ -1339,6 +1339,360 @@
   </si>
   <si>
     <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
   </si>
   <si>
     <t>Time trend</t>
@@ -5677,24 +6031,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1741</v>
+        <v>1859</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1796</v>
+        <v>1914</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1797</v>
+        <v>1915</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1798</v>
+        <v>1916</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1804</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1742</v>
+        <v>1860</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
@@ -5703,15 +6057,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1799</v>
+        <v>1917</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1805</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1743</v>
+        <v>1861</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
@@ -5720,15 +6074,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1799</v>
+        <v>1917</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1806</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1744</v>
+        <v>1862</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
@@ -5737,15 +6091,15 @@
         <v>2.960594732333751e-14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1799</v>
+        <v>1917</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1807</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1745</v>
+        <v>1863</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
@@ -5754,15 +6108,15 @@
         <v>3.7007434154171883e-14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1799</v>
+        <v>1917</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1808</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1746</v>
+        <v>1864</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
@@ -5771,15 +6125,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1799</v>
+        <v>1917</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1809</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1747</v>
+        <v>1865</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -5788,15 +6142,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1810</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1748</v>
+        <v>1866</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
@@ -5805,15 +6159,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1811</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1749</v>
+        <v>1867</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
@@ -5822,15 +6176,15 @@
         <v>1.0136552464388315</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1812</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1750</v>
+        <v>1868</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -5839,15 +6193,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1813</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1751</v>
+        <v>1869</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
@@ -5856,15 +6210,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1814</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1752</v>
+        <v>1870</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -5873,15 +6227,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1815</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1753</v>
+        <v>1871</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
@@ -5890,15 +6244,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1816</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1754</v>
+        <v>1872</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -5907,15 +6261,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1817</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1755</v>
+        <v>1873</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
@@ -5924,15 +6278,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1818</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1756</v>
+        <v>1874</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
@@ -5941,15 +6295,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1819</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1757</v>
+        <v>1875</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
@@ -5958,15 +6312,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1800</v>
+        <v>1918</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1820</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1758</v>
+        <v>1876</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -5975,15 +6329,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1801</v>
+        <v>1919</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1821</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1759</v>
+        <v>1877</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
@@ -5992,15 +6346,15 @@
         <v>1.0136552464388342</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1802</v>
+        <v>1920</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1822</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1760</v>
+        <v>1878</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
@@ -6009,15 +6363,15 @@
         <v>1.0136552464388313</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1802</v>
+        <v>1920</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1823</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1761</v>
+        <v>1879</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
@@ -6026,15 +6380,15 @@
         <v>0.98652870738172072</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1802</v>
+        <v>1920</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1824</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1762</v>
+        <v>1880</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
@@ -6043,15 +6397,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1802</v>
+        <v>1920</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1825</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1763</v>
+        <v>1881</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
@@ -6060,15 +6414,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1802</v>
+        <v>1920</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1826</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1764</v>
+        <v>1882</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
@@ -6077,15 +6431,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1802</v>
+        <v>1920</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1827</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1765</v>
+        <v>1883</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
@@ -6094,15 +6448,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1802</v>
+        <v>1920</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1828</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1766</v>
+        <v>1884</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -6112,12 +6466,12 @@
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0" t="s">
-        <v>1829</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1767</v>
+        <v>1885</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -6127,12 +6481,12 @@
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0" t="s">
-        <v>1830</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1768</v>
+        <v>1886</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -6142,12 +6496,12 @@
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0" t="s">
-        <v>1831</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1769</v>
+        <v>1887</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -6157,12 +6511,12 @@
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0" t="s">
-        <v>1832</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1770</v>
+        <v>1888</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6172,12 +6526,12 @@
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0" t="s">
-        <v>1833</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1771</v>
+        <v>1889</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6187,12 +6541,12 @@
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0" t="s">
-        <v>1834</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1772</v>
+        <v>1890</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6202,12 +6556,12 @@
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
-        <v>1835</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1773</v>
+        <v>1891</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6217,12 +6571,12 @@
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0" t="s">
-        <v>1836</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1774</v>
+        <v>1892</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
@@ -6232,12 +6586,12 @@
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0" t="s">
-        <v>1837</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1775</v>
+        <v>1893</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
@@ -6247,12 +6601,12 @@
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0" t="s">
-        <v>1838</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1776</v>
+        <v>1894</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
@@ -6262,12 +6616,12 @@
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0" t="s">
-        <v>1839</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1777</v>
+        <v>1895</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
@@ -6277,12 +6631,12 @@
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0" t="s">
-        <v>1840</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1778</v>
+        <v>1896</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
@@ -6292,12 +6646,12 @@
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0" t="s">
-        <v>1841</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1779</v>
+        <v>1897</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
@@ -6307,12 +6661,12 @@
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0" t="s">
-        <v>1842</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1780</v>
+        <v>1898</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
@@ -6322,12 +6676,12 @@
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0" t="s">
-        <v>1843</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1781</v>
+        <v>1899</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
@@ -6337,12 +6691,12 @@
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0" t="s">
-        <v>1844</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1782</v>
+        <v>1900</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
@@ -6352,12 +6706,12 @@
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0" t="s">
-        <v>1845</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1783</v>
+        <v>1901</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
@@ -6367,12 +6721,12 @@
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="0" t="s">
-        <v>1846</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1784</v>
+        <v>1902</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
@@ -6382,12 +6736,12 @@
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="0" t="s">
-        <v>1847</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1785</v>
+        <v>1903</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
@@ -6397,12 +6751,12 @@
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0" t="s">
-        <v>1848</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1786</v>
+        <v>1904</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
@@ -6412,12 +6766,12 @@
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0" t="s">
-        <v>1849</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1787</v>
+        <v>1905</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
@@ -6427,12 +6781,12 @@
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0" t="s">
-        <v>1850</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1788</v>
+        <v>1906</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -6442,12 +6796,12 @@
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="0" t="s">
-        <v>1851</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>1789</v>
+        <v>1907</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
@@ -6457,12 +6811,12 @@
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0" t="s">
-        <v>1852</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>1790</v>
+        <v>1908</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -6472,12 +6826,12 @@
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0" t="s">
-        <v>1853</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>1791</v>
+        <v>1909</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -6487,12 +6841,12 @@
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0" t="s">
-        <v>1854</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>1792</v>
+        <v>1910</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -6502,12 +6856,12 @@
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0" t="s">
-        <v>1855</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>1793</v>
+        <v>1911</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -6517,12 +6871,12 @@
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0" t="s">
-        <v>1856</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>1794</v>
+        <v>1912</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -6532,12 +6886,12 @@
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0" t="s">
-        <v>1857</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>1795</v>
+        <v>1913</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -6546,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1803</v>
+        <v>1921</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1858</v>
+        <v>1976</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="2095">
   <si>
     <t>Row</t>
   </si>
@@ -1339,6 +1339,360 @@
   </si>
   <si>
     <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
   </si>
   <si>
     <t>Time trend</t>
@@ -6031,24 +6385,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1859</v>
+        <v>1977</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1914</v>
+        <v>2032</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1915</v>
+        <v>2033</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1916</v>
+        <v>2034</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1922</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1860</v>
+        <v>1978</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
@@ -6057,15 +6411,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1923</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1861</v>
+        <v>1979</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
@@ -6074,15 +6428,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1924</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1862</v>
+        <v>1980</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
@@ -6091,15 +6445,15 @@
         <v>2.960594732333751e-14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1925</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1863</v>
+        <v>1981</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
@@ -6108,15 +6462,15 @@
         <v>3.7007434154171883e-14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1926</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1864</v>
+        <v>1982</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
@@ -6125,15 +6479,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1917</v>
+        <v>2035</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1927</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1865</v>
+        <v>1983</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -6142,15 +6496,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1928</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1866</v>
+        <v>1984</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
@@ -6159,15 +6513,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1929</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1867</v>
+        <v>1985</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
@@ -6176,15 +6530,15 @@
         <v>1.0136552464388315</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1930</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1868</v>
+        <v>1986</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -6193,15 +6547,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1931</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1869</v>
+        <v>1987</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
@@ -6210,15 +6564,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1932</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1870</v>
+        <v>1988</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -6227,15 +6581,15 @@
         <v>1.0074170717777329</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1933</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1871</v>
+        <v>1989</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
@@ -6244,15 +6598,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1934</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1872</v>
+        <v>1990</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -6261,15 +6615,15 @@
         <v>1.0061922463256359</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1935</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1873</v>
+        <v>1991</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
@@ -6278,15 +6632,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1936</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1874</v>
+        <v>1992</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
@@ -6295,15 +6649,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1937</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1875</v>
+        <v>1993</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
@@ -6312,15 +6666,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1918</v>
+        <v>2036</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1938</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1876</v>
+        <v>1994</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -6329,15 +6683,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1919</v>
+        <v>2037</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1939</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1877</v>
+        <v>1995</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
@@ -6346,15 +6700,15 @@
         <v>1.0136552464388342</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1940</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1878</v>
+        <v>1996</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
@@ -6363,15 +6717,15 @@
         <v>1.0136552464388313</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1941</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1879</v>
+        <v>1997</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
@@ -6380,15 +6734,15 @@
         <v>0.98652870738172072</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1942</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1880</v>
+        <v>1998</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
@@ -6397,15 +6751,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1943</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1881</v>
+        <v>1999</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
@@ -6414,15 +6768,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1944</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1882</v>
+        <v>2000</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
@@ -6431,15 +6785,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1945</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1883</v>
+        <v>2001</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
@@ -6448,15 +6802,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1920</v>
+        <v>2038</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1946</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1884</v>
+        <v>2002</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -6466,12 +6820,12 @@
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0" t="s">
-        <v>1947</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1885</v>
+        <v>2003</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -6481,12 +6835,12 @@
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0" t="s">
-        <v>1948</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1886</v>
+        <v>2004</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -6496,12 +6850,12 @@
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0" t="s">
-        <v>1949</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1887</v>
+        <v>2005</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -6511,12 +6865,12 @@
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0" t="s">
-        <v>1950</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1888</v>
+        <v>2006</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6526,12 +6880,12 @@
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0" t="s">
-        <v>1951</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1889</v>
+        <v>2007</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6541,12 +6895,12 @@
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0" t="s">
-        <v>1952</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1890</v>
+        <v>2008</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6556,12 +6910,12 @@
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="s">
-        <v>1953</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1891</v>
+        <v>2009</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6571,12 +6925,12 @@
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0" t="s">
-        <v>1954</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1892</v>
+        <v>2010</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
@@ -6586,12 +6940,12 @@
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0" t="s">
-        <v>1955</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1893</v>
+        <v>2011</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
@@ -6601,12 +6955,12 @@
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0" t="s">
-        <v>1956</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1894</v>
+        <v>2012</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
@@ -6616,12 +6970,12 @@
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0" t="s">
-        <v>1957</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1895</v>
+        <v>2013</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
@@ -6631,12 +6985,12 @@
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0" t="s">
-        <v>1958</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1896</v>
+        <v>2014</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
@@ -6646,12 +7000,12 @@
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0" t="s">
-        <v>1959</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1897</v>
+        <v>2015</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
@@ -6661,12 +7015,12 @@
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0" t="s">
-        <v>1960</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1898</v>
+        <v>2016</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
@@ -6676,12 +7030,12 @@
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0" t="s">
-        <v>1961</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1899</v>
+        <v>2017</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
@@ -6691,12 +7045,12 @@
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0" t="s">
-        <v>1962</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
@@ -6706,12 +7060,12 @@
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0" t="s">
-        <v>1963</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1901</v>
+        <v>2019</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
@@ -6721,12 +7075,12 @@
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="0" t="s">
-        <v>1964</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1902</v>
+        <v>2020</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
@@ -6736,12 +7090,12 @@
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="0" t="s">
-        <v>1965</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1903</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
@@ -6751,12 +7105,12 @@
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0" t="s">
-        <v>1966</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1904</v>
+        <v>2022</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
@@ -6766,12 +7120,12 @@
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0" t="s">
-        <v>1967</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1905</v>
+        <v>2023</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
@@ -6781,12 +7135,12 @@
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0" t="s">
-        <v>1968</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1906</v>
+        <v>2024</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -6796,12 +7150,12 @@
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="0" t="s">
-        <v>1969</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>1907</v>
+        <v>2025</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
@@ -6811,12 +7165,12 @@
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0" t="s">
-        <v>1970</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>1908</v>
+        <v>2026</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -6826,12 +7180,12 @@
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0" t="s">
-        <v>1971</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>1909</v>
+        <v>2027</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -6841,12 +7195,12 @@
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0" t="s">
-        <v>1972</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>1910</v>
+        <v>2028</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -6856,12 +7210,12 @@
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0" t="s">
-        <v>1973</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>1911</v>
+        <v>2029</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -6871,12 +7225,12 @@
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0" t="s">
-        <v>1974</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>1912</v>
+        <v>2030</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -6886,12 +7240,12 @@
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0" t="s">
-        <v>1975</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>1913</v>
+        <v>2031</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -6900,10 +7254,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1921</v>
+        <v>2039</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1976</v>
+        <v>2094</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="3173">
   <si>
     <t>Row</t>
   </si>
@@ -6115,6 +6115,3240 @@
   </si>
   <si>
     <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
   </si>
   <si>
     <t>Form</t>
@@ -6373,444 +9607,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G55"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
-    <col min="4" max="4" width="6.7109375" customWidth="true"/>
-    <col min="5" max="5" width="41.5703125" customWidth="true"/>
+    <col min="2" max="2" width="13.85546875" customWidth="true"/>
+    <col min="3" max="3" width="16.28515625" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="7" max="7" width="41.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1977</v>
+        <v>3053</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2032</v>
+        <v>3108</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2033</v>
+        <v>3109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2034</v>
+        <v>3110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2040</v>
+        <v>3111</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3112</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1978</v>
+        <v>3054</v>
       </c>
       <c r="B2" s="0">
         <v>7.1827411167511901</v>
       </c>
       <c r="C2" s="0">
+        <v>6.1421319796954199</v>
+      </c>
+      <c r="D2" s="0">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>2041</v>
+      <c r="E2" s="0">
+        <v>1.2075534253719653e-16</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1979</v>
+        <v>3055</v>
       </c>
       <c r="B3" s="0">
         <v>7.1827411167511901</v>
       </c>
       <c r="C3" s="0">
+        <v>6.142131979695419</v>
+      </c>
+      <c r="D3" s="0">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>2042</v>
+      <c r="E3" s="0">
+        <v>-4.1896963524429617e-17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1980</v>
+        <v>3056</v>
       </c>
       <c r="B4" s="0">
         <v>2.4999999999999467</v>
       </c>
       <c r="C4" s="0">
+        <v>2.4999999999999467</v>
+      </c>
+      <c r="D4" s="0">
         <v>2.960594732333751e-14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>2043</v>
+      <c r="E4" s="0">
+        <v>2.9588632865940217e-14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>3121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1981</v>
+        <v>3057</v>
       </c>
       <c r="B5" s="0">
         <v>2.9999999999999583</v>
       </c>
       <c r="C5" s="0">
+        <v>2.0000000000000018</v>
+      </c>
+      <c r="D5" s="0">
         <v>3.7007434154171883e-14</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>2044</v>
+      <c r="E5" s="0">
+        <v>-5.4039345077953275e-17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>3122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1982</v>
+        <v>3058</v>
       </c>
       <c r="B6" s="0">
         <v>5.5749999999999744</v>
       </c>
       <c r="C6" s="0">
+        <v>4.5500000000000211</v>
+      </c>
+      <c r="D6" s="0">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>2045</v>
+      <c r="E6" s="0">
+        <v>2.1653433867282472e-14</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>3123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1983</v>
+        <v>3059</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
       </c>
       <c r="C7" s="0">
+        <v>3.1038930586587554</v>
+      </c>
+      <c r="D7" s="0">
         <v>1.0074170717777329</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>2046</v>
+      <c r="E7" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>3124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1984</v>
+        <v>3060</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
       </c>
       <c r="C8" s="0">
+        <v>0.74698177564761847</v>
+      </c>
+      <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>2047</v>
+      <c r="E8" s="0">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>3125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1985</v>
+        <v>3061</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113012</v>
       </c>
       <c r="C9" s="0">
+        <v>3.4627050260226024</v>
+      </c>
+      <c r="D9" s="0">
         <v>1.0136552464388315</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>2048</v>
+      <c r="E9" s="0">
+        <v>1.0111859095936384</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>3126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1986</v>
+        <v>3062</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="C10" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>2049</v>
+      <c r="E10" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>3127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1987</v>
+        <v>3063</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293773</v>
       </c>
       <c r="C11" s="0">
+        <v>3.1038930586587554</v>
+      </c>
+      <c r="D11" s="0">
         <v>1.0074170717777329</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>2050</v>
+      <c r="E11" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>3128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1988</v>
+        <v>3064</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
       </c>
       <c r="C12" s="0">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.0074170717777329</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>2051</v>
+      <c r="E12" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>3129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1989</v>
+        <v>3065</v>
       </c>
       <c r="B13" s="0">
         <v>1.0074170717777329</v>
       </c>
       <c r="C13" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D13" s="0">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>2052</v>
+      <c r="E13" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>3130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1990</v>
+        <v>3066</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
       </c>
       <c r="C14" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.0061922463256359</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>2053</v>
+      <c r="E14" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>3131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1991</v>
+        <v>3067</v>
       </c>
       <c r="B15" s="0">
         <v>1.0174924957880032</v>
       </c>
       <c r="C15" s="0">
+        <v>1.0150138111283185</v>
+      </c>
+      <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>2054</v>
+      <c r="E15" s="0">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>3132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1992</v>
+        <v>3068</v>
       </c>
       <c r="B16" s="0">
         <v>1.0174924957880032</v>
       </c>
       <c r="C16" s="0">
+        <v>1.0150138111283185</v>
+      </c>
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>2055</v>
+      <c r="E16" s="0">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>3133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1993</v>
+        <v>3069</v>
       </c>
       <c r="B17" s="0">
         <v>1.0174924957880032</v>
       </c>
       <c r="C17" s="0">
+        <v>1.0150138111283185</v>
+      </c>
+      <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>2056</v>
+      <c r="E17" s="0">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>3134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1994</v>
+        <v>3070</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
       </c>
       <c r="C18" s="0">
+        <v>-3.0994521822121592e-27</v>
+      </c>
+      <c r="D18" s="0">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>2057</v>
+      <c r="E18" s="0">
+        <v>4.7987998690912896e-28</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>3135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1995</v>
+        <v>3071</v>
       </c>
       <c r="B19" s="0">
         <v>1.5311735582264343</v>
       </c>
       <c r="C19" s="0">
+        <v>3.0623471164527158</v>
+      </c>
+      <c r="D19" s="0">
         <v>1.0136552464388342</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>2058</v>
+      <c r="E19" s="0">
+        <v>1.0111859095936391</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>3136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1996</v>
+        <v>3072</v>
       </c>
       <c r="B20" s="0">
         <v>0.051731550977645917</v>
       </c>
       <c r="C20" s="0">
+        <v>0.10346310195529185</v>
+      </c>
+      <c r="D20" s="0">
         <v>1.0136552464388313</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>2059</v>
+      <c r="E20" s="0">
+        <v>1.0111859095936382</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>3137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1997</v>
+        <v>3073</v>
       </c>
       <c r="B21" s="0">
         <v>0.64435209661000203</v>
       </c>
       <c r="C21" s="0">
+        <v>0.32217604830500091</v>
+      </c>
+      <c r="D21" s="0">
         <v>0.98652870738172072</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>2060</v>
+      <c r="E21" s="0">
+        <v>0.98893783083060027</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>3138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1998</v>
+        <v>3074</v>
       </c>
       <c r="B22" s="0">
         <v>1.0061922463256359</v>
       </c>
       <c r="C22" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>2061</v>
+      <c r="E22" s="0">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>3139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1999</v>
+        <v>3075</v>
       </c>
       <c r="B23" s="0">
         <v>1.0249999999999995</v>
       </c>
       <c r="C23" s="0">
+        <v>1.0249999999999995</v>
+      </c>
+      <c r="D23" s="0">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>2062</v>
+      <c r="E23" s="0">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>3140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2000</v>
+        <v>3076</v>
       </c>
       <c r="B24" s="0">
         <v>1.0136552464388315</v>
       </c>
       <c r="C24" s="0">
+        <v>1.0111859095936382</v>
+      </c>
+      <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>2063</v>
+      <c r="E24" s="0">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>3141</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2001</v>
+        <v>3077</v>
       </c>
       <c r="B25" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="C25" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>2064</v>
+      <c r="E25" s="0">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>3142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2002</v>
+        <v>3078</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -6818,14 +10204,20 @@
       <c r="C26" s="0">
         <v>0</v>
       </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0" t="s">
-        <v>2065</v>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0" t="s">
+        <v>3143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2003</v>
+        <v>3079</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -6833,14 +10225,20 @@
       <c r="C27" s="0">
         <v>0</v>
       </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0" t="s">
-        <v>2066</v>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0" t="s">
+        <v>3144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2004</v>
+        <v>3080</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -6848,14 +10246,20 @@
       <c r="C28" s="0">
         <v>0</v>
       </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0" t="s">
-        <v>2067</v>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0" t="s">
+        <v>3145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2005</v>
+        <v>3081</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -6863,14 +10267,20 @@
       <c r="C29" s="0">
         <v>0</v>
       </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0" t="s">
-        <v>2068</v>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0" t="s">
+        <v>3146</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2006</v>
+        <v>3082</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6878,14 +10288,20 @@
       <c r="C30" s="0">
         <v>0</v>
       </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0" t="s">
-        <v>2069</v>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0" t="s">
+        <v>3147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2007</v>
+        <v>3083</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6893,14 +10309,20 @@
       <c r="C31" s="0">
         <v>0</v>
       </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0" t="s">
-        <v>2070</v>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0" t="s">
+        <v>3148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2008</v>
+        <v>3084</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6908,14 +10330,20 @@
       <c r="C32" s="0">
         <v>0</v>
       </c>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0" t="s">
-        <v>2071</v>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0" t="s">
+        <v>3149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>2009</v>
+        <v>3085</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6923,224 +10351,314 @@
       <c r="C33" s="0">
         <v>0</v>
       </c>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0" t="s">
-        <v>2072</v>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0" t="s">
+        <v>3150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>2010</v>
+        <v>3086</v>
       </c>
       <c r="B34" s="0">
         <v>1.0074170717777329</v>
       </c>
       <c r="C34" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D34" s="0">
         <v>0</v>
       </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0" t="s">
-        <v>2073</v>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0" t="s">
+        <v>3151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>2011</v>
+        <v>3087</v>
       </c>
       <c r="B35" s="0">
         <v>0.99622871975463567</v>
       </c>
       <c r="C35" s="0">
+        <v>0.99622871975463567</v>
+      </c>
+      <c r="D35" s="0">
         <v>0</v>
       </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0" t="s">
-        <v>2074</v>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0" t="s">
+        <v>3152</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>2012</v>
+        <v>3088</v>
       </c>
       <c r="B36" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="C36" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D36" s="0">
         <v>0</v>
       </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0" t="s">
-        <v>2075</v>
+      <c r="E36" s="0">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0" t="s">
+        <v>3153</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>2013</v>
+        <v>3089</v>
       </c>
       <c r="B37" s="0">
         <v>0.029999999999999999</v>
       </c>
       <c r="C37" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D37" s="0">
         <v>0</v>
       </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0" t="s">
-        <v>2076</v>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0" t="s">
+        <v>3154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>2014</v>
+        <v>3090</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
       </c>
       <c r="C38" s="0">
+        <v>10</v>
+      </c>
+      <c r="D38" s="0">
         <v>0</v>
       </c>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0" t="s">
-        <v>2077</v>
+      <c r="E38" s="0">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0" t="s">
+        <v>3155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>2015</v>
+        <v>3091</v>
       </c>
       <c r="B39" s="0">
         <v>1.0061922463256359</v>
       </c>
       <c r="C39" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="D39" s="0">
         <v>0</v>
       </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0" t="s">
-        <v>2078</v>
+      <c r="E39" s="0">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0" t="s">
+        <v>3156</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>2016</v>
+        <v>3092</v>
       </c>
       <c r="B40" s="0">
         <v>6</v>
       </c>
       <c r="C40" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0">
         <v>0</v>
       </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0" t="s">
-        <v>2079</v>
+      <c r="E40" s="0">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0" t="s">
+        <v>3157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>2017</v>
+        <v>3093</v>
       </c>
       <c r="B41" s="0">
         <v>0.25</v>
       </c>
       <c r="C41" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="0">
         <v>0</v>
       </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0" t="s">
-        <v>2080</v>
+      <c r="E41" s="0">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0" t="s">
+        <v>3158</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>2018</v>
+        <v>3094</v>
       </c>
       <c r="B42" s="0">
         <v>0.84999999999999998</v>
       </c>
       <c r="C42" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="D42" s="0">
         <v>0</v>
       </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0" t="s">
-        <v>2081</v>
+      <c r="E42" s="0">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0" t="s">
+        <v>3159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>2019</v>
+        <v>3095</v>
       </c>
       <c r="B43" s="0">
         <v>60</v>
       </c>
       <c r="C43" s="0">
+        <v>60</v>
+      </c>
+      <c r="D43" s="0">
         <v>0</v>
       </c>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0" t="s">
-        <v>2082</v>
+      <c r="E43" s="0">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0" t="s">
+        <v>3160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>2020</v>
+        <v>3096</v>
       </c>
       <c r="B44" s="0">
         <v>300</v>
       </c>
       <c r="C44" s="0">
+        <v>300</v>
+      </c>
+      <c r="D44" s="0">
         <v>0</v>
       </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0" t="s">
-        <v>2083</v>
+      <c r="E44" s="0">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0" t="s">
+        <v>3161</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>2021</v>
+        <v>3097</v>
       </c>
       <c r="B45" s="0">
         <v>0.90000000000000002</v>
       </c>
       <c r="C45" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="D45" s="0">
         <v>0</v>
       </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0" t="s">
-        <v>2084</v>
+      <c r="E45" s="0">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0" t="s">
+        <v>3162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>2022</v>
+        <v>3098</v>
       </c>
       <c r="B46" s="0">
         <v>0.84999999999999998</v>
       </c>
       <c r="C46" s="0">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="D46" s="0">
         <v>0</v>
       </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0" t="s">
-        <v>2085</v>
+      <c r="E46" s="0">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0" t="s">
+        <v>3163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>2023</v>
+        <v>3099</v>
       </c>
       <c r="B47" s="0">
         <v>3.5</v>
       </c>
       <c r="C47" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="0">
         <v>0</v>
       </c>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0" t="s">
-        <v>2086</v>
+      <c r="E47" s="0">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0" t="s">
+        <v>3164</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>2024</v>
+        <v>3100</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -7148,29 +10666,41 @@
       <c r="C48" s="0">
         <v>0</v>
       </c>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0" t="s">
-        <v>2087</v>
+      <c r="D48" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0" t="s">
+        <v>3165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>2025</v>
+        <v>3101</v>
       </c>
       <c r="B49" s="0">
         <v>0.80000000000000004</v>
       </c>
       <c r="C49" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D49" s="0">
         <v>0</v>
       </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0" t="s">
-        <v>2088</v>
+      <c r="E49" s="0">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0" t="s">
+        <v>3166</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>2026</v>
+        <v>3102</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -7178,14 +10708,20 @@
       <c r="C50" s="0">
         <v>0</v>
       </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0" t="s">
-        <v>2089</v>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0" t="s">
+        <v>3167</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>2027</v>
+        <v>3103</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -7193,14 +10729,20 @@
       <c r="C51" s="0">
         <v>0</v>
       </c>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0" t="s">
-        <v>2090</v>
+      <c r="D51" s="0">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0" t="s">
+        <v>3168</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>2028</v>
+        <v>3104</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -7208,14 +10750,20 @@
       <c r="C52" s="0">
         <v>0</v>
       </c>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0" t="s">
-        <v>2091</v>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0" t="s">
+        <v>3169</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>2029</v>
+        <v>3105</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -7223,14 +10771,20 @@
       <c r="C53" s="0">
         <v>0</v>
       </c>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0" t="s">
-        <v>2092</v>
+      <c r="D53" s="0">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0" t="s">
+        <v>3170</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>2030</v>
+        <v>3106</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -7238,26 +10792,38 @@
       <c r="C54" s="0">
         <v>0</v>
       </c>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0" t="s">
-        <v>2093</v>
+      <c r="D54" s="0">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0" t="s">
+        <v>3171</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>2031</v>
+        <v>3107</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
       </c>
       <c r="C55" s="0">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0">
         <v>1</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>2094</v>
+      <c r="E55" s="0">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="3173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5601" uniqueCount="4417">
   <si>
     <t>Row</t>
   </si>
@@ -9472,6 +9472,3738 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
   </si>
   <si>
     <t>Labor share</t>
@@ -9607,12 +13339,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.85546875" customWidth="true"/>
-    <col min="3" max="3" width="16.28515625" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="16.28515625" customWidth="true"/>
     <col min="6" max="6" width="6.7109375" customWidth="true"/>
@@ -9621,174 +13353,174 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3053</v>
+        <v>4292</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3108</v>
+        <v>4350</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3109</v>
+        <v>4351</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3110</v>
+        <v>4352</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3111</v>
+        <v>4353</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3112</v>
+        <v>4354</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3118</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3054</v>
+        <v>4293</v>
       </c>
       <c r="B2" s="0">
-        <v>7.1827411167511901</v>
+        <v>3.0199999999999783</v>
       </c>
       <c r="C2" s="0">
-        <v>6.1421319796954199</v>
+        <v>2.5174634146343258</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>1.2075534253719653e-16</v>
+        <v>-6.0623640334538528e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>3113</v>
+        <v>4355</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>3119</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3055</v>
+        <v>4294</v>
       </c>
       <c r="B3" s="0">
-        <v>7.1827411167511901</v>
+        <v>3.0199999999999783</v>
       </c>
       <c r="C3" s="0">
-        <v>6.142131979695419</v>
+        <v>2.5174634146343253</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>-4.1896963524429617e-17</v>
+        <v>4.7968950373470761e-17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>3113</v>
+        <v>4355</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>3120</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3056</v>
+        <v>4295</v>
       </c>
       <c r="B4" s="0">
-        <v>2.4999999999999467</v>
+        <v>2.000000000000024</v>
       </c>
       <c r="C4" s="0">
-        <v>2.4999999999999467</v>
+        <v>2.0000000000000129</v>
       </c>
       <c r="D4" s="0">
-        <v>2.960594732333751e-14</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>2.9588632865940217e-14</v>
+        <v>-3.0174676778304199e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>3113</v>
+        <v>4355</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>3121</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3057</v>
+        <v>4296</v>
       </c>
       <c r="B5" s="0">
-        <v>2.9999999999999583</v>
+        <v>2.4999999999998579</v>
       </c>
       <c r="C5" s="0">
-        <v>2.0000000000000018</v>
+        <v>2.0000000000000062</v>
       </c>
       <c r="D5" s="0">
-        <v>3.7007434154171883e-14</v>
+        <v>2.960594732333751e-14</v>
       </c>
       <c r="E5" s="0">
-        <v>-5.4039345077953275e-17</v>
+        <v>1.7537675456253333e-14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>3113</v>
+        <v>4355</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>3122</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3058</v>
+        <v>4297</v>
       </c>
       <c r="B6" s="0">
-        <v>5.5749999999999744</v>
+        <v>4.5499999999999652</v>
       </c>
       <c r="C6" s="0">
-        <v>4.5500000000000211</v>
+        <v>4.0400000000000507</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.1653433867282472e-14</v>
+        <v>1.7342571379942422e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>3113</v>
+        <v>4355</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>3123</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3059</v>
+        <v>4298</v>
       </c>
       <c r="B7" s="0">
-        <v>1.5519465293293773</v>
+        <v>1.5519465293293777</v>
       </c>
       <c r="C7" s="0">
-        <v>3.1038930586587554</v>
+        <v>3.103893058658755</v>
       </c>
       <c r="D7" s="0">
-        <v>1.0074170717777329</v>
+        <v>1.0061922463256356</v>
       </c>
       <c r="E7" s="0">
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>3124</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3060</v>
+        <v>4299</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
       </c>
       <c r="C8" s="0">
-        <v>0.74698177564761847</v>
+        <v>0.74698177564761825</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
@@ -9797,38 +13529,38 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>3125</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3061</v>
+        <v>4300</v>
       </c>
       <c r="B9" s="0">
-        <v>1.7313525130113012</v>
+        <v>1.7313525130113014</v>
       </c>
       <c r="C9" s="0">
         <v>3.4627050260226024</v>
       </c>
       <c r="D9" s="0">
-        <v>1.0136552464388315</v>
+        <v>1.0111859095936382</v>
       </c>
       <c r="E9" s="0">
-        <v>1.0111859095936384</v>
+        <v>1.0099504938362081</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>3126</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3062</v>
+        <v>4301</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -9837,44 +13569,44 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D10" s="0">
-        <v>1.0061922463256359</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="E10" s="0">
-        <v>1.0061922463256359</v>
+        <v>1.0049629315732036</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>3127</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3063</v>
+        <v>4302</v>
       </c>
       <c r="B11" s="0">
-        <v>1.5519465293293773</v>
+        <v>1.5519465293293777</v>
       </c>
       <c r="C11" s="0">
-        <v>3.1038930586587554</v>
+        <v>3.103893058658755</v>
       </c>
       <c r="D11" s="0">
-        <v>1.0074170717777329</v>
+        <v>1.0061922463256356</v>
       </c>
       <c r="E11" s="0">
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>3128</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3064</v>
+        <v>4303</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -9883,24 +13615,24 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>1.0074170717777329</v>
+        <v>1.0061922463256356</v>
       </c>
       <c r="E12" s="0">
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>3129</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3065</v>
+        <v>4304</v>
       </c>
       <c r="B13" s="0">
-        <v>1.0074170717777329</v>
+        <v>1.0061922463256359</v>
       </c>
       <c r="C13" s="0">
         <v>1.0049629315732038</v>
@@ -9912,15 +13644,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>3130</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3066</v>
+        <v>4305</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -9929,27 +13661,27 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>1.0061922463256359</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="E14" s="0">
-        <v>1.0061922463256359</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>3131</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3067</v>
+        <v>4306</v>
       </c>
       <c r="B15" s="0">
-        <v>1.0174924957880032</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C15" s="0">
-        <v>1.0150138111283185</v>
+        <v>1.0062351010325994</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
@@ -9958,44 +13690,44 @@
         <v>1</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>3132</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3068</v>
+        <v>4307</v>
       </c>
       <c r="B16" s="0">
-        <v>1.0174924957880032</v>
+        <v>1.0024906793143211</v>
       </c>
       <c r="C16" s="0">
-        <v>1.0150138111283185</v>
+        <v>1.0012658869490878</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>3133</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3069</v>
+        <v>4308</v>
       </c>
       <c r="B17" s="0">
-        <v>1.0174924957880032</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C17" s="0">
-        <v>1.0150138111283185</v>
+        <v>1.0062351010325994</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
@@ -10004,136 +13736,136 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>3114</v>
+        <v>4356</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>3134</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3070</v>
+        <v>4309</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C18" s="0">
-        <v>-3.0994521822121592e-27</v>
+        <v>1.0062351010325994</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0">
-        <v>4.7987998690912896e-28</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>3115</v>
+        <v>4356</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>3135</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3071</v>
+        <v>4310</v>
       </c>
       <c r="B19" s="0">
-        <v>1.5311735582264343</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>3.0623471164527158</v>
+        <v>9.3778721492709479e-24</v>
       </c>
       <c r="D19" s="0">
-        <v>1.0136552464388342</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>1.0111859095936391</v>
+        <v>-1.4899097114009449e-24</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>3116</v>
+        <v>4357</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>3136</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3072</v>
+        <v>4311</v>
       </c>
       <c r="B20" s="0">
-        <v>0.051731550977645917</v>
+        <v>1.5311735582263752</v>
       </c>
       <c r="C20" s="0">
-        <v>0.10346310195529185</v>
+        <v>3.0623471164526688</v>
       </c>
       <c r="D20" s="0">
-        <v>1.0136552464388313</v>
+        <v>1.0111859095936395</v>
       </c>
       <c r="E20" s="0">
-        <v>1.0111859095936382</v>
+        <v>1.0099504938362083</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>3116</v>
+        <v>4358</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>3137</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3073</v>
+        <v>4312</v>
       </c>
       <c r="B21" s="0">
-        <v>0.64435209661000203</v>
+        <v>0.051731550977645938</v>
       </c>
       <c r="C21" s="0">
-        <v>0.32217604830500091</v>
+        <v>0.10346310195529185</v>
       </c>
       <c r="D21" s="0">
-        <v>0.98652870738172072</v>
+        <v>1.011185909593638</v>
       </c>
       <c r="E21" s="0">
-        <v>0.98893783083060027</v>
+        <v>1.0099504938362078</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>3116</v>
+        <v>4358</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>3138</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3074</v>
+        <v>4313</v>
       </c>
       <c r="B22" s="0">
-        <v>1.0061922463256359</v>
+        <v>0.64435209661000181</v>
       </c>
       <c r="C22" s="0">
-        <v>1.0061922463256359</v>
+        <v>0.32217604830500091</v>
       </c>
       <c r="D22" s="0">
-        <v>1</v>
+        <v>0.98893783083060027</v>
       </c>
       <c r="E22" s="0">
-        <v>1.0000000000000002</v>
+        <v>0.99014754297667418</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>3116</v>
+        <v>4358</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>3139</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3075</v>
+        <v>4314</v>
       </c>
       <c r="B23" s="0">
-        <v>1.0249999999999995</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="C23" s="0">
-        <v>1.0249999999999995</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
@@ -10142,21 +13874,21 @@
         <v>1</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>3116</v>
+        <v>4358</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>3140</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3076</v>
+        <v>4315</v>
       </c>
       <c r="B24" s="0">
-        <v>1.0136552464388315</v>
+        <v>1.0200000000000002</v>
       </c>
       <c r="C24" s="0">
-        <v>1.0111859095936382</v>
+        <v>1.02</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
@@ -10165,21 +13897,21 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>3116</v>
+        <v>4358</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>3141</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3077</v>
+        <v>4316</v>
       </c>
       <c r="B25" s="0">
-        <v>0.83333333333333337</v>
+        <v>1.0111859095936382</v>
       </c>
       <c r="C25" s="0">
-        <v>0.83333333333333337</v>
+        <v>1.0099504938362078</v>
       </c>
       <c r="D25" s="0">
         <v>1</v>
@@ -10188,36 +13920,38 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>3116</v>
+        <v>4358</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>3142</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3078</v>
+        <v>4317</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>4358</v>
+      </c>
       <c r="G26" s="0" t="s">
-        <v>3143</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3079</v>
+        <v>4318</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -10233,12 +13967,12 @@
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0" t="s">
-        <v>3144</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3080</v>
+        <v>4319</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -10254,12 +13988,12 @@
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0" t="s">
-        <v>3145</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3081</v>
+        <v>4320</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -10275,12 +14009,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>3146</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3082</v>
+        <v>4321</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -10296,12 +14030,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>3147</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3083</v>
+        <v>4322</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -10317,12 +14051,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>3148</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3084</v>
+        <v>4323</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -10338,12 +14072,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>3149</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3085</v>
+        <v>4324</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -10359,18 +14093,18 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>3150</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3086</v>
+        <v>4325</v>
       </c>
       <c r="B34" s="0">
-        <v>1.0074170717777329</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>1.0049629315732038</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -10380,18 +14114,18 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>3151</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3087</v>
+        <v>4326</v>
       </c>
       <c r="B35" s="0">
-        <v>0.99622871975463567</v>
+        <v>1.0061922463256359</v>
       </c>
       <c r="C35" s="0">
-        <v>0.99622871975463567</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -10401,18 +14135,18 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>3152</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3088</v>
+        <v>4327</v>
       </c>
       <c r="B36" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.99622871975463567</v>
       </c>
       <c r="C36" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.99622871975463567</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -10422,18 +14156,18 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>3153</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3089</v>
+        <v>4328</v>
       </c>
       <c r="B37" s="0">
-        <v>0.029999999999999999</v>
+        <v>-0.0074361935641006766</v>
       </c>
       <c r="C37" s="0">
-        <v>0.029999999999999999</v>
+        <v>-0.0074361935641006766</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -10443,18 +14177,18 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>3154</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3090</v>
+        <v>4329</v>
       </c>
       <c r="B38" s="0">
-        <v>10</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="C38" s="0">
-        <v>10</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -10463,19 +14197,17 @@
         <v>0</v>
       </c>
       <c r="F38" s="0"/>
-      <c r="G38" s="0" t="s">
-        <v>3155</v>
-      </c>
+      <c r="G38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3091</v>
+        <v>4330</v>
       </c>
       <c r="B39" s="0">
-        <v>1.0061922463256359</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C39" s="0">
-        <v>1.0061922463256359</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -10485,18 +14217,18 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>3156</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3092</v>
+        <v>4331</v>
       </c>
       <c r="B40" s="0">
-        <v>6</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="C40" s="0">
-        <v>6</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -10506,18 +14238,18 @@
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0" t="s">
-        <v>3157</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3093</v>
+        <v>4332</v>
       </c>
       <c r="B41" s="0">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -10527,18 +14259,18 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>3158</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3094</v>
+        <v>4333</v>
       </c>
       <c r="B42" s="0">
-        <v>0.84999999999999998</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="C42" s="0">
-        <v>0.84999999999999998</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -10548,18 +14280,18 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>3159</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3095</v>
+        <v>4334</v>
       </c>
       <c r="B43" s="0">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C43" s="0">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -10569,18 +14301,18 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>3160</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3096</v>
+        <v>4335</v>
       </c>
       <c r="B44" s="0">
-        <v>300</v>
+        <v>0.25</v>
       </c>
       <c r="C44" s="0">
-        <v>300</v>
+        <v>0.25</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -10590,18 +14322,18 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>3161</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3097</v>
+        <v>4336</v>
       </c>
       <c r="B45" s="0">
-        <v>0.90000000000000002</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="C45" s="0">
-        <v>0.90000000000000002</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -10611,18 +14343,18 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>3162</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3098</v>
+        <v>4337</v>
       </c>
       <c r="B46" s="0">
-        <v>0.84999999999999998</v>
+        <v>60</v>
       </c>
       <c r="C46" s="0">
-        <v>0.84999999999999998</v>
+        <v>60</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -10632,18 +14364,18 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>3163</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3099</v>
+        <v>4338</v>
       </c>
       <c r="B47" s="0">
-        <v>3.5</v>
+        <v>300</v>
       </c>
       <c r="C47" s="0">
-        <v>3.5</v>
+        <v>300</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -10653,18 +14385,18 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>3164</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3100</v>
+        <v>4339</v>
       </c>
       <c r="B48" s="0">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C48" s="0">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -10674,18 +14406,18 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>3165</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3101</v>
+        <v>4340</v>
       </c>
       <c r="B49" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="C49" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10695,18 +14427,18 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>3166</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3102</v>
+        <v>4341</v>
       </c>
       <c r="B50" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10716,12 +14448,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>3167</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3103</v>
+        <v>4342</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10737,18 +14469,18 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>3168</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3104</v>
+        <v>4343</v>
       </c>
       <c r="B52" s="0">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10758,12 +14490,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>3169</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3105</v>
+        <v>4344</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10779,12 +14511,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>3170</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3106</v>
+        <v>4345</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -10800,12 +14532,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>3171</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3107</v>
+        <v>4346</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -10814,16 +14546,79 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0">
         <v>1</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E58" s="0">
         <v>1</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>3117</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>3172</v>
+      <c r="F58" s="0" t="s">
+        <v>4359</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>4416</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5601" uniqueCount="4417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="4542">
   <si>
     <t>Row</t>
   </si>
@@ -10003,6 +10003,381 @@
   </si>
   <si>
     <t>beta0</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
   </si>
   <si>
     <t>gamma</t>
@@ -13353,30 +13728,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4292</v>
+        <v>4417</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4350</v>
+        <v>4475</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4351</v>
+        <v>4476</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4352</v>
+        <v>4477</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4353</v>
+        <v>4478</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4354</v>
+        <v>4479</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4360</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4293</v>
+        <v>4418</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
@@ -13391,15 +13766,15 @@
         <v>-6.0623640334538528e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4355</v>
+        <v>4480</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4361</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4294</v>
+        <v>4419</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
@@ -13414,15 +13789,15 @@
         <v>4.7968950373470761e-17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>4355</v>
+        <v>4480</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>4362</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4295</v>
+        <v>4420</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -13437,15 +13812,15 @@
         <v>-3.0174676778304199e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>4355</v>
+        <v>4480</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>4363</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4296</v>
+        <v>4421</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999998579</v>
@@ -13460,15 +13835,15 @@
         <v>1.7537675456253333e-14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>4355</v>
+        <v>4480</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>4364</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4297</v>
+        <v>4422</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999999652</v>
@@ -13483,15 +13858,15 @@
         <v>1.7342571379942422e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>4355</v>
+        <v>4480</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>4365</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4298</v>
+        <v>4423</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293777</v>
@@ -13506,15 +13881,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>4366</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4299</v>
+        <v>4424</v>
       </c>
       <c r="B8" s="0">
         <v>0.74698177564761814</v>
@@ -13529,15 +13904,15 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>4367</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4300</v>
+        <v>4425</v>
       </c>
       <c r="B9" s="0">
         <v>1.7313525130113014</v>
@@ -13552,15 +13927,15 @@
         <v>1.0099504938362081</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>4368</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4301</v>
+        <v>4426</v>
       </c>
       <c r="B10" s="0">
         <v>0.83333333333333337</v>
@@ -13575,15 +13950,15 @@
         <v>1.0049629315732036</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>4369</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4302</v>
+        <v>4427</v>
       </c>
       <c r="B11" s="0">
         <v>1.5519465293293777</v>
@@ -13598,15 +13973,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>4370</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4303</v>
+        <v>4428</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -13621,15 +13996,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>4371</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4304</v>
+        <v>4429</v>
       </c>
       <c r="B13" s="0">
         <v>1.0061922463256359</v>
@@ -13644,15 +14019,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>4372</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4305</v>
+        <v>4430</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -13667,15 +14042,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>4373</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4306</v>
+        <v>4431</v>
       </c>
       <c r="B15" s="0">
         <v>1.0074659719585326</v>
@@ -13690,15 +14065,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>4374</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4307</v>
+        <v>4432</v>
       </c>
       <c r="B16" s="0">
         <v>1.0024906793143211</v>
@@ -13713,15 +14088,15 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>4375</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4308</v>
+        <v>4433</v>
       </c>
       <c r="B17" s="0">
         <v>1.0074659719585326</v>
@@ -13736,15 +14111,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>4376</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4309</v>
+        <v>4434</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -13759,15 +14134,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>4356</v>
+        <v>4481</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>4377</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4310</v>
+        <v>4435</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -13782,15 +14157,15 @@
         <v>-1.4899097114009449e-24</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>4357</v>
+        <v>4482</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>4378</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4311</v>
+        <v>4436</v>
       </c>
       <c r="B20" s="0">
         <v>1.5311735582263752</v>
@@ -13805,15 +14180,15 @@
         <v>1.0099504938362083</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>4358</v>
+        <v>4483</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>4379</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4312</v>
+        <v>4437</v>
       </c>
       <c r="B21" s="0">
         <v>0.051731550977645938</v>
@@ -13828,15 +14203,15 @@
         <v>1.0099504938362078</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>4358</v>
+        <v>4483</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>4380</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4313</v>
+        <v>4438</v>
       </c>
       <c r="B22" s="0">
         <v>0.64435209661000181</v>
@@ -13851,15 +14226,15 @@
         <v>0.99014754297667418</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>4358</v>
+        <v>4483</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>4381</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4314</v>
+        <v>4439</v>
       </c>
       <c r="B23" s="0">
         <v>1.0049629315732038</v>
@@ -13874,15 +14249,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>4358</v>
+        <v>4483</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>4382</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4315</v>
+        <v>4440</v>
       </c>
       <c r="B24" s="0">
         <v>1.0200000000000002</v>
@@ -13897,15 +14272,15 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>4358</v>
+        <v>4483</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>4383</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4316</v>
+        <v>4441</v>
       </c>
       <c r="B25" s="0">
         <v>1.0111859095936382</v>
@@ -13920,15 +14295,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>4358</v>
+        <v>4483</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>4384</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4317</v>
+        <v>4442</v>
       </c>
       <c r="B26" s="0">
         <v>0.83333333333333337</v>
@@ -13943,15 +14318,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>4358</v>
+        <v>4483</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>4385</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4318</v>
+        <v>4443</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -13967,12 +14342,12 @@
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0" t="s">
-        <v>4386</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4319</v>
+        <v>4444</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -13988,12 +14363,12 @@
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0" t="s">
-        <v>4387</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4320</v>
+        <v>4445</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -14009,12 +14384,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>4388</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4321</v>
+        <v>4446</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -14030,12 +14405,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>4389</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4322</v>
+        <v>4447</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -14051,12 +14426,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>4390</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4323</v>
+        <v>4448</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -14072,12 +14447,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>4391</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4324</v>
+        <v>4449</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -14093,12 +14468,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>4392</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4325</v>
+        <v>4450</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -14114,12 +14489,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>4393</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4326</v>
+        <v>4451</v>
       </c>
       <c r="B35" s="0">
         <v>1.0061922463256359</v>
@@ -14135,12 +14510,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>4394</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>4327</v>
+        <v>4452</v>
       </c>
       <c r="B36" s="0">
         <v>0.99622871975463567</v>
@@ -14156,12 +14531,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>4395</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>4328</v>
+        <v>4453</v>
       </c>
       <c r="B37" s="0">
         <v>-0.0074361935641006766</v>
@@ -14177,12 +14552,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>4396</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>4329</v>
+        <v>4454</v>
       </c>
       <c r="B38" s="0">
         <v>0.80000000000000004</v>
@@ -14201,7 +14576,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>4330</v>
+        <v>4455</v>
       </c>
       <c r="B39" s="0">
         <v>0.59999999999999998</v>
@@ -14217,12 +14592,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>4397</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>4331</v>
+        <v>4456</v>
       </c>
       <c r="B40" s="0">
         <v>0.029999999999999999</v>
@@ -14238,12 +14613,12 @@
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0" t="s">
-        <v>4398</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>4332</v>
+        <v>4457</v>
       </c>
       <c r="B41" s="0">
         <v>10</v>
@@ -14259,12 +14634,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>4399</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>4333</v>
+        <v>4458</v>
       </c>
       <c r="B42" s="0">
         <v>1.0049629315732038</v>
@@ -14280,12 +14655,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>4400</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>4334</v>
+        <v>4459</v>
       </c>
       <c r="B43" s="0">
         <v>6</v>
@@ -14301,12 +14676,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>4401</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>4335</v>
+        <v>4460</v>
       </c>
       <c r="B44" s="0">
         <v>0.25</v>
@@ -14322,12 +14697,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>4402</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>4336</v>
+        <v>4461</v>
       </c>
       <c r="B45" s="0">
         <v>0.84999999999999998</v>
@@ -14343,12 +14718,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>4403</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>4337</v>
+        <v>4462</v>
       </c>
       <c r="B46" s="0">
         <v>60</v>
@@ -14364,12 +14739,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>4404</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>4338</v>
+        <v>4463</v>
       </c>
       <c r="B47" s="0">
         <v>300</v>
@@ -14385,12 +14760,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>4405</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>4339</v>
+        <v>4464</v>
       </c>
       <c r="B48" s="0">
         <v>0.90000000000000002</v>
@@ -14406,12 +14781,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>4406</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>4340</v>
+        <v>4465</v>
       </c>
       <c r="B49" s="0">
         <v>0.84999999999999998</v>
@@ -14427,12 +14802,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>4407</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>4341</v>
+        <v>4466</v>
       </c>
       <c r="B50" s="0">
         <v>4</v>
@@ -14448,12 +14823,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>4408</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>4342</v>
+        <v>4467</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -14469,12 +14844,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>4409</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>4343</v>
+        <v>4468</v>
       </c>
       <c r="B52" s="0">
         <v>0.80000000000000004</v>
@@ -14490,12 +14865,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>4410</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>4344</v>
+        <v>4469</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -14511,12 +14886,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>4411</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>4345</v>
+        <v>4470</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -14532,12 +14907,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>4412</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>4346</v>
+        <v>4471</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -14553,12 +14928,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>4413</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>4347</v>
+        <v>4472</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -14574,12 +14949,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>4414</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>4348</v>
+        <v>4473</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -14595,12 +14970,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>4415</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>4349</v>
+        <v>4474</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -14615,10 +14990,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>4359</v>
+        <v>4484</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>4416</v>
+        <v>4541</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="4542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="5048">
   <si>
     <t>Row</t>
   </si>
@@ -13324,6 +13324,1524 @@
   </si>
   <si>
     <t>Pk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
   </si>
   <si>
     <t>Rk</t>
@@ -13714,7 +15232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
@@ -13728,76 +15246,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4417</v>
+        <v>4921</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4475</v>
+        <v>4981</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4476</v>
+        <v>4982</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4477</v>
+        <v>4983</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4478</v>
+        <v>4984</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4479</v>
+        <v>4985</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4485</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4418</v>
+        <v>4922</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
       </c>
       <c r="C2" s="0">
-        <v>2.5174634146343258</v>
+        <v>2.5174634146343253</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>-6.0623640334538528e-17</v>
+        <v>-1.1847197195174198e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4480</v>
+        <v>4986</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4486</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4419</v>
+        <v>4923</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
       </c>
       <c r="C3" s="0">
-        <v>2.5174634146343253</v>
+        <v>2.5174634146343244</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>4.7968950373470761e-17</v>
+        <v>2.9407819612755486e-18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>4480</v>
+        <v>4986</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>4487</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4420</v>
+        <v>4924</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -13809,67 +15327,67 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.0174676778304199e-17</v>
+        <v>-1.0321621083814744e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>4480</v>
+        <v>4986</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>4488</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4421</v>
+        <v>4925</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999998579</v>
       </c>
       <c r="C5" s="0">
-        <v>2.0000000000000062</v>
+        <v>2.0000000000000067</v>
       </c>
       <c r="D5" s="0">
         <v>2.960594732333751e-14</v>
       </c>
       <c r="E5" s="0">
-        <v>1.7537675456253333e-14</v>
+        <v>1.0629776554815597e-14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>4480</v>
+        <v>4986</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>4489</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4422</v>
+        <v>4926</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999999652</v>
       </c>
       <c r="C6" s="0">
-        <v>4.0400000000000507</v>
+        <v>4.040000000000064</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1.7342571379942422e-14</v>
+        <v>1.0520358363670791e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>4480</v>
+        <v>4986</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>4490</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4423</v>
+        <v>4927</v>
       </c>
       <c r="B7" s="0">
-        <v>1.5519465293293777</v>
+        <v>1.5519465293293773</v>
       </c>
       <c r="C7" s="0">
         <v>3.103893058658755</v>
@@ -13881,113 +15399,111 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>4481</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>4491</v>
-      </c>
+        <v>4987</v>
+      </c>
+      <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4424</v>
+        <v>4928</v>
       </c>
       <c r="B8" s="0">
-        <v>0.74698177564761814</v>
+        <v>1.5519465293293773</v>
       </c>
       <c r="C8" s="0">
-        <v>0.74698177564761825</v>
+        <v>3.103893058658755</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>1.0061922463256356</v>
       </c>
       <c r="E8" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>4492</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4425</v>
+        <v>4929</v>
       </c>
       <c r="B9" s="0">
-        <v>1.7313525130113014</v>
+        <v>0.74698177564761814</v>
       </c>
       <c r="C9" s="0">
-        <v>3.4627050260226024</v>
+        <v>0.74698177564761825</v>
       </c>
       <c r="D9" s="0">
-        <v>1.0111859095936382</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0">
-        <v>1.0099504938362081</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>4493</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4426</v>
+        <v>4930</v>
       </c>
       <c r="B10" s="0">
-        <v>0.83333333333333337</v>
+        <v>1.7313525130113012</v>
       </c>
       <c r="C10" s="0">
-        <v>0.83333333333333337</v>
+        <v>3.4627050260226024</v>
       </c>
       <c r="D10" s="0">
-        <v>1.0049629315732038</v>
+        <v>1.0111859095936382</v>
       </c>
       <c r="E10" s="0">
-        <v>1.0049629315732036</v>
+        <v>1.0099504938362081</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>4494</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4427</v>
+        <v>4931</v>
       </c>
       <c r="B11" s="0">
-        <v>1.5519465293293777</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C11" s="0">
-        <v>3.103893058658755</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D11" s="0">
-        <v>1.0061922463256356</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="E11" s="0">
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>4495</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4428</v>
+        <v>4932</v>
       </c>
       <c r="B12" s="0">
-        <v>1</v>
+        <v>1.5519465293293773</v>
       </c>
       <c r="C12" s="0">
-        <v>2</v>
+        <v>3.103893058658755</v>
       </c>
       <c r="D12" s="0">
         <v>1.0061922463256356</v>
@@ -13996,113 +15512,113 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>4496</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4429</v>
+        <v>4933</v>
       </c>
       <c r="B13" s="0">
-        <v>1.0061922463256359</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0">
+        <v>1.0061922463256356</v>
+      </c>
+      <c r="E13" s="0">
         <v>1.0049629315732038</v>
       </c>
-      <c r="D13" s="0">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0">
-        <v>1</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>4497</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4430</v>
+        <v>4934</v>
       </c>
       <c r="B14" s="0">
+        <v>1.0061922463256359</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1.0049629315732038</v>
+      </c>
+      <c r="D14" s="0">
         <v>1</v>
       </c>
-      <c r="C14" s="0">
+      <c r="E14" s="0">
         <v>1</v>
       </c>
-      <c r="D14" s="0">
-        <v>1.0049629315732038</v>
-      </c>
-      <c r="E14" s="0">
-        <v>1.0049629315732038</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>4498</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4431</v>
+        <v>4935</v>
       </c>
       <c r="B15" s="0">
-        <v>1.0074659719585326</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>1.0062351010325994</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0">
-        <v>1</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="E15" s="0">
-        <v>1</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>4499</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4432</v>
+        <v>4936</v>
       </c>
       <c r="B16" s="0">
-        <v>1.0024906793143211</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C16" s="0">
-        <v>1.0012658869490878</v>
+        <v>1.0062351010325994</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>4500</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4433</v>
+        <v>4937</v>
       </c>
       <c r="B17" s="0">
-        <v>1.0074659719585326</v>
+        <v>1.0024906793143211</v>
       </c>
       <c r="C17" s="0">
-        <v>1.0062351010325994</v>
+        <v>1.0012658869490878</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
@@ -14111,15 +15627,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>4501</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4434</v>
+        <v>4938</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -14134,159 +15650,157 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>4481</v>
+        <v>4987</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>4502</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4435</v>
+        <v>4939</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>1.0074659719585326</v>
       </c>
       <c r="C19" s="0">
-        <v>9.3778721492709479e-24</v>
+        <v>1.0062351010325994</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0">
-        <v>-1.4899097114009449e-24</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>4482</v>
+        <v>4987</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>4503</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4436</v>
+        <v>4940</v>
       </c>
       <c r="B20" s="0">
-        <v>1.5311735582263752</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>3.0623471164526688</v>
+        <v>3.4983671459173163e-24</v>
       </c>
       <c r="D20" s="0">
-        <v>1.0111859095936395</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>1.0099504938362083</v>
+        <v>-6.9234505873394988e-25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>4483</v>
+        <v>4988</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>4504</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4437</v>
+        <v>4941</v>
       </c>
       <c r="B21" s="0">
-        <v>0.051731550977645938</v>
+        <v>1.5311735582263337</v>
       </c>
       <c r="C21" s="0">
-        <v>0.10346310195529185</v>
+        <v>3.0623471164526799</v>
       </c>
       <c r="D21" s="0">
-        <v>1.011185909593638</v>
+        <v>1.0111859095936384</v>
       </c>
       <c r="E21" s="0">
-        <v>1.0099504938362078</v>
+        <v>1.0099504938362083</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>4483</v>
+        <v>4989</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>4505</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4438</v>
+        <v>4942</v>
       </c>
       <c r="B22" s="0">
-        <v>0.64435209661000181</v>
+        <v>1.0111859095936384</v>
       </c>
       <c r="C22" s="0">
-        <v>0.32217604830500091</v>
+        <v>1.0099504938362083</v>
       </c>
       <c r="D22" s="0">
-        <v>0.98893783083060027</v>
+        <v>1</v>
       </c>
       <c r="E22" s="0">
-        <v>0.99014754297667418</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>4483</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>4506</v>
-      </c>
+        <v>4989</v>
+      </c>
+      <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4439</v>
+        <v>4943</v>
       </c>
       <c r="B23" s="0">
-        <v>1.0049629315732038</v>
+        <v>0.051731550977645917</v>
       </c>
       <c r="C23" s="0">
-        <v>1.0049629315732038</v>
+        <v>0.10346310195529185</v>
       </c>
       <c r="D23" s="0">
-        <v>1</v>
+        <v>1.011185909593638</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>1.0099504938362078</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>4483</v>
+        <v>4989</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>4507</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4440</v>
+        <v>4944</v>
       </c>
       <c r="B24" s="0">
-        <v>1.0200000000000002</v>
+        <v>0.64435209661000203</v>
       </c>
       <c r="C24" s="0">
-        <v>1.02</v>
+        <v>0.32217604830500091</v>
       </c>
       <c r="D24" s="0">
-        <v>1</v>
+        <v>0.98893783083060027</v>
       </c>
       <c r="E24" s="0">
-        <v>1.0000000000000002</v>
+        <v>0.99014754297667418</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>4483</v>
+        <v>4989</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>4508</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4441</v>
+        <v>4945</v>
       </c>
       <c r="B25" s="0">
-        <v>1.0111859095936382</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="C25" s="0">
-        <v>1.0099504938362078</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="D25" s="0">
         <v>1</v>
@@ -14295,21 +15809,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>4483</v>
+        <v>4989</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>4509</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4442</v>
+        <v>4946</v>
       </c>
       <c r="B26" s="0">
-        <v>0.83333333333333337</v>
+        <v>1.0200000000000002</v>
       </c>
       <c r="C26" s="0">
-        <v>0.83333333333333337</v>
+        <v>1.02</v>
       </c>
       <c r="D26" s="0">
         <v>1</v>
@@ -14318,57 +15832,61 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>4483</v>
+        <v>4989</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>4510</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4443</v>
+        <v>4947</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>1.0111859095936382</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>1.0099504938362078</v>
       </c>
       <c r="D27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>4989</v>
+      </c>
       <c r="G27" s="0" t="s">
-        <v>4511</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4444</v>
+        <v>4948</v>
       </c>
       <c r="B28" s="0">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>4989</v>
+      </c>
       <c r="G28" s="0" t="s">
-        <v>4512</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4445</v>
+        <v>4949</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -14384,12 +15902,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>4513</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4446</v>
+        <v>4950</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -14405,12 +15923,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>4514</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4447</v>
+        <v>4951</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -14426,12 +15944,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>4515</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4448</v>
+        <v>4952</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -14447,12 +15965,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>4516</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4449</v>
+        <v>4953</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -14468,12 +15986,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>4517</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4450</v>
+        <v>4954</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -14489,18 +16007,18 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>4518</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4451</v>
+        <v>4955</v>
       </c>
       <c r="B35" s="0">
-        <v>1.0061922463256359</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0">
-        <v>1.0049629315732038</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -14510,18 +16028,18 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>4519</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>4452</v>
+        <v>4956</v>
       </c>
       <c r="B36" s="0">
-        <v>0.99622871975463567</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0">
-        <v>0.99622871975463567</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -14531,18 +16049,18 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>4520</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>4453</v>
+        <v>4957</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.0074361935641006766</v>
+        <v>1.0061922463256359</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.0074361935641006766</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -14552,18 +16070,18 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>4521</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>4454</v>
+        <v>4958</v>
       </c>
       <c r="B38" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.99622871975463567</v>
       </c>
       <c r="C38" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.99622871975463567</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -14572,17 +16090,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
+      <c r="G38" s="0" t="s">
+        <v>5026</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>4455</v>
+        <v>4959</v>
       </c>
       <c r="B39" s="0">
-        <v>0.59999999999999998</v>
+        <v>-0.0074361935641006766</v>
       </c>
       <c r="C39" s="0">
-        <v>0.59999999999999998</v>
+        <v>-0.0074361935641006766</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -14592,18 +16112,18 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>4522</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>4456</v>
+        <v>4960</v>
       </c>
       <c r="B40" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="C40" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -14612,19 +16132,17 @@
         <v>0</v>
       </c>
       <c r="F40" s="0"/>
-      <c r="G40" s="0" t="s">
-        <v>4523</v>
-      </c>
+      <c r="G40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>4457</v>
+        <v>4961</v>
       </c>
       <c r="B41" s="0">
-        <v>10</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C41" s="0">
-        <v>10</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -14634,18 +16152,18 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>4524</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>4458</v>
+        <v>4962</v>
       </c>
       <c r="B42" s="0">
-        <v>1.0049629315732038</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="C42" s="0">
-        <v>1.0049629315732038</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -14655,18 +16173,18 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>4525</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>4459</v>
+        <v>4963</v>
       </c>
       <c r="B43" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -14676,18 +16194,18 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>4526</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>4460</v>
+        <v>4964</v>
       </c>
       <c r="B44" s="0">
-        <v>0.25</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="C44" s="0">
-        <v>0.25</v>
+        <v>1.0049629315732038</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -14697,18 +16215,18 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>4527</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>4461</v>
+        <v>4965</v>
       </c>
       <c r="B45" s="0">
-        <v>0.84999999999999998</v>
+        <v>6</v>
       </c>
       <c r="C45" s="0">
-        <v>0.84999999999999998</v>
+        <v>6</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -14718,18 +16236,18 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>4528</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>4462</v>
+        <v>4966</v>
       </c>
       <c r="B46" s="0">
-        <v>60</v>
+        <v>0.25</v>
       </c>
       <c r="C46" s="0">
-        <v>60</v>
+        <v>0.25</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -14739,18 +16257,18 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>4529</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>4463</v>
+        <v>4967</v>
       </c>
       <c r="B47" s="0">
-        <v>300</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="C47" s="0">
-        <v>300</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -14760,18 +16278,18 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>4530</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>4464</v>
+        <v>4968</v>
       </c>
       <c r="B48" s="0">
-        <v>0.90000000000000002</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0">
-        <v>0.90000000000000002</v>
+        <v>60</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -14781,18 +16299,18 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>4531</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>4465</v>
+        <v>4969</v>
       </c>
       <c r="B49" s="0">
-        <v>0.84999999999999998</v>
+        <v>300</v>
       </c>
       <c r="C49" s="0">
-        <v>0.84999999999999998</v>
+        <v>300</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -14802,18 +16320,18 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>4532</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>4466</v>
+        <v>4970</v>
       </c>
       <c r="B50" s="0">
-        <v>4</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C50" s="0">
-        <v>4</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -14823,18 +16341,18 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>4533</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>4467</v>
+        <v>4971</v>
       </c>
       <c r="B51" s="0">
-        <v>0</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="C51" s="0">
-        <v>0</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -14844,18 +16362,18 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>4534</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>4468</v>
+        <v>4972</v>
       </c>
       <c r="B52" s="0">
-        <v>0.80000000000000004</v>
+        <v>4</v>
       </c>
       <c r="C52" s="0">
-        <v>0.80000000000000004</v>
+        <v>4</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -14865,12 +16383,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>4535</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>4469</v>
+        <v>4973</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -14886,18 +16404,18 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>4536</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>4470</v>
+        <v>4974</v>
       </c>
       <c r="B54" s="0">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="C54" s="0">
-        <v>0</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -14907,12 +16425,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>4537</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>4471</v>
+        <v>4975</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -14928,12 +16446,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>4538</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>4472</v>
+        <v>4976</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -14949,12 +16467,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>4539</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>4473</v>
+        <v>4977</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -14970,12 +16488,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>4540</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>4474</v>
+        <v>4978</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -14984,16 +16502,58 @@
         <v>0</v>
       </c>
       <c r="D58" s="0">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0">
         <v>1</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E60" s="0">
         <v>1</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>4484</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>4541</v>
+      <c r="F60" s="0" t="s">
+        <v>4990</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>5047</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="5048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7093" uniqueCount="5176">
   <si>
     <t>Row</t>
   </si>
@@ -14776,6 +14776,390 @@
   </si>
   <si>
     <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Diffâ</t>
   </si>
   <si>
     <t>Row</t>
@@ -15177,7 +15561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -15201,11 +15585,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -15223,6 +15615,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15246,30 +15646,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4921</v>
+        <v>5049</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4981</v>
+        <v>5109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4982</v>
+        <v>5110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4983</v>
+        <v>5111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4984</v>
+        <v>5112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4985</v>
+        <v>5113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4991</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4922</v>
+        <v>5050</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
@@ -15284,15 +15684,15 @@
         <v>-1.1847197195174198e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4986</v>
+        <v>5114</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4992</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4923</v>
+        <v>5051</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
@@ -15307,15 +15707,15 @@
         <v>2.9407819612755486e-18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>4986</v>
+        <v>5114</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>4993</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4924</v>
+        <v>5052</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -15330,15 +15730,15 @@
         <v>-1.0321621083814744e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>4986</v>
+        <v>5114</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>4994</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4925</v>
+        <v>5053</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999998579</v>
@@ -15353,15 +15753,15 @@
         <v>1.0629776554815597e-14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>4986</v>
+        <v>5114</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>4995</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4926</v>
+        <v>5054</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999999652</v>
@@ -15376,15 +15776,15 @@
         <v>1.0520358363670791e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>4986</v>
+        <v>5114</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>4996</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4927</v>
+        <v>5055</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -15399,13 +15799,13 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4928</v>
+        <v>5056</v>
       </c>
       <c r="B8" s="0">
         <v>1.5519465293293773</v>
@@ -15420,15 +15820,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>4997</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4929</v>
+        <v>5057</v>
       </c>
       <c r="B9" s="0">
         <v>0.74698177564761814</v>
@@ -15443,15 +15843,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>4998</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4930</v>
+        <v>5058</v>
       </c>
       <c r="B10" s="0">
         <v>1.7313525130113012</v>
@@ -15466,15 +15866,15 @@
         <v>1.0099504938362081</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>4999</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4931</v>
+        <v>5059</v>
       </c>
       <c r="B11" s="0">
         <v>0.83333333333333337</v>
@@ -15489,15 +15889,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>5000</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4932</v>
+        <v>5060</v>
       </c>
       <c r="B12" s="0">
         <v>1.5519465293293773</v>
@@ -15512,15 +15912,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>5001</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4933</v>
+        <v>5061</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -15535,15 +15935,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>5002</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4934</v>
+        <v>5062</v>
       </c>
       <c r="B14" s="0">
         <v>1.0061922463256359</v>
@@ -15558,15 +15958,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>5003</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4935</v>
+        <v>5063</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -15581,15 +15981,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>5004</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4936</v>
+        <v>5064</v>
       </c>
       <c r="B16" s="0">
         <v>1.0074659719585326</v>
@@ -15604,15 +16004,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>5005</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4937</v>
+        <v>5065</v>
       </c>
       <c r="B17" s="0">
         <v>1.0024906793143211</v>
@@ -15627,15 +16027,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>5006</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4938</v>
+        <v>5066</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -15650,15 +16050,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>5007</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4939</v>
+        <v>5067</v>
       </c>
       <c r="B19" s="0">
         <v>1.0074659719585326</v>
@@ -15673,15 +16073,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>4987</v>
+        <v>5115</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>5008</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4940</v>
+        <v>5068</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -15696,15 +16096,15 @@
         <v>-6.9234505873394988e-25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>4988</v>
+        <v>5116</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>5009</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4941</v>
+        <v>5069</v>
       </c>
       <c r="B21" s="0">
         <v>1.5311735582263337</v>
@@ -15719,15 +16119,15 @@
         <v>1.0099504938362083</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>5010</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4942</v>
+        <v>5070</v>
       </c>
       <c r="B22" s="0">
         <v>1.0111859095936384</v>
@@ -15742,13 +16142,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4943</v>
+        <v>5071</v>
       </c>
       <c r="B23" s="0">
         <v>0.051731550977645917</v>
@@ -15763,15 +16163,15 @@
         <v>1.0099504938362078</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>5011</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4944</v>
+        <v>5072</v>
       </c>
       <c r="B24" s="0">
         <v>0.64435209661000203</v>
@@ -15786,15 +16186,15 @@
         <v>0.99014754297667418</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>5012</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4945</v>
+        <v>5073</v>
       </c>
       <c r="B25" s="0">
         <v>1.0049629315732038</v>
@@ -15809,15 +16209,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>5013</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4946</v>
+        <v>5074</v>
       </c>
       <c r="B26" s="0">
         <v>1.0200000000000002</v>
@@ -15832,15 +16232,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>5014</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4947</v>
+        <v>5075</v>
       </c>
       <c r="B27" s="0">
         <v>1.0111859095936382</v>
@@ -15855,15 +16255,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>5015</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4948</v>
+        <v>5076</v>
       </c>
       <c r="B28" s="0">
         <v>0.83333333333333337</v>
@@ -15878,15 +16278,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>4989</v>
+        <v>5117</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>5016</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4949</v>
+        <v>5077</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -15902,12 +16302,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>5017</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4950</v>
+        <v>5078</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -15923,12 +16323,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>5018</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4951</v>
+        <v>5079</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -15944,12 +16344,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>5019</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4952</v>
+        <v>5080</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -15965,12 +16365,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>5020</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4953</v>
+        <v>5081</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -15986,12 +16386,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>5021</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4954</v>
+        <v>5082</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -16007,12 +16407,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>5022</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4955</v>
+        <v>5083</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -16028,12 +16428,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>5023</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>4956</v>
+        <v>5084</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -16049,12 +16449,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>5024</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>4957</v>
+        <v>5085</v>
       </c>
       <c r="B37" s="0">
         <v>1.0061922463256359</v>
@@ -16070,12 +16470,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>5025</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>4958</v>
+        <v>5086</v>
       </c>
       <c r="B38" s="0">
         <v>0.99622871975463567</v>
@@ -16091,12 +16491,12 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="s">
-        <v>5026</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>4959</v>
+        <v>5087</v>
       </c>
       <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
@@ -16112,12 +16512,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>5027</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>4960</v>
+        <v>5088</v>
       </c>
       <c r="B40" s="0">
         <v>0.80000000000000004</v>
@@ -16136,7 +16536,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>4961</v>
+        <v>5089</v>
       </c>
       <c r="B41" s="0">
         <v>0.59999999999999998</v>
@@ -16152,12 +16552,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>5028</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>4962</v>
+        <v>5090</v>
       </c>
       <c r="B42" s="0">
         <v>0.029999999999999999</v>
@@ -16173,12 +16573,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>5029</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>4963</v>
+        <v>5091</v>
       </c>
       <c r="B43" s="0">
         <v>10</v>
@@ -16194,12 +16594,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>5030</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>4964</v>
+        <v>5092</v>
       </c>
       <c r="B44" s="0">
         <v>1.0049629315732038</v>
@@ -16215,12 +16615,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>5031</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>4965</v>
+        <v>5093</v>
       </c>
       <c r="B45" s="0">
         <v>6</v>
@@ -16236,12 +16636,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>5032</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>4966</v>
+        <v>5094</v>
       </c>
       <c r="B46" s="0">
         <v>0.25</v>
@@ -16257,12 +16657,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>5033</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>4967</v>
+        <v>5095</v>
       </c>
       <c r="B47" s="0">
         <v>0.84999999999999998</v>
@@ -16278,12 +16678,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>5034</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>4968</v>
+        <v>5096</v>
       </c>
       <c r="B48" s="0">
         <v>60</v>
@@ -16299,12 +16699,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>5035</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>4969</v>
+        <v>5097</v>
       </c>
       <c r="B49" s="0">
         <v>300</v>
@@ -16320,12 +16720,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>5036</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>4970</v>
+        <v>5098</v>
       </c>
       <c r="B50" s="0">
         <v>0.90000000000000002</v>
@@ -16341,12 +16741,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>5037</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>4971</v>
+        <v>5099</v>
       </c>
       <c r="B51" s="0">
         <v>0.84999999999999998</v>
@@ -16362,12 +16762,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>5038</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>4972</v>
+        <v>5100</v>
       </c>
       <c r="B52" s="0">
         <v>4</v>
@@ -16383,12 +16783,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>5039</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>4973</v>
+        <v>5101</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -16404,12 +16804,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>5040</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>4974</v>
+        <v>5102</v>
       </c>
       <c r="B54" s="0">
         <v>0.80000000000000004</v>
@@ -16425,12 +16825,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>5041</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>4975</v>
+        <v>5103</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -16446,12 +16846,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>5042</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>4976</v>
+        <v>5104</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -16467,12 +16867,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>5043</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>4977</v>
+        <v>5105</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -16488,12 +16888,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>5044</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>4978</v>
+        <v>5106</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -16509,12 +16909,12 @@
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0" t="s">
-        <v>5045</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>4979</v>
+        <v>5107</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -16530,12 +16930,12 @@
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0" t="s">
-        <v>5046</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>4980</v>
+        <v>5108</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -16550,10 +16950,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>4990</v>
+        <v>5118</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>5047</v>
+        <v>5175</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7093" uniqueCount="5176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7393" uniqueCount="5303">
   <si>
     <t>Row</t>
   </si>
@@ -15160,6 +15160,387 @@
   </si>
   <si>
     <t>Diffâ</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Infl</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R20exp</t>
+  </si>
+  <si>
+    <t>term20</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>dPk</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>d4P</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Ey</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Eterm20</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta0</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>xiw</t>
+  </si>
+  <si>
+    <t>xip</t>
+  </si>
+  <si>
+    <t>rhoa</t>
+  </si>
+  <si>
+    <t>rhor</t>
+  </si>
+  <si>
+    <t>kappap</t>
+  </si>
+  <si>
+    <t>kappan</t>
+  </si>
+  <si>
+    <t>rhoterm20</t>
+  </si>
+  <si>
+    <t>Short_</t>
+  </si>
+  <si>
+    <t>Long_</t>
+  </si>
+  <si>
+    <t>Infl_</t>
+  </si>
+  <si>
+    <t>Growth_</t>
+  </si>
+  <si>
+    <t>Wage_</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Short term rate</t>
+  </si>
+  <si>
+    <t>Long term rate</t>
+  </si>
+  <si>
+    <t>Price inflation</t>
+  </si>
+  <si>
+    <t>Output growth</t>
+  </si>
+  <si>
+    <t>Wage inflation</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Wage rate</t>
+  </si>
+  <si>
+    <t>Nominal marginal cost</t>
+  </si>
+  <si>
+    <t>Consumption habit</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Rate of change in productivity</t>
+  </si>
+  <si>
+    <t>Final prices</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Real interest rate</t>
+  </si>
+  <si>
+    <t>5-year interest rate</t>
+  </si>
+  <si>
+    <t>5-Year expectations of short rates</t>
+  </si>
+  <si>
+    <t>5-year term premium</t>
+  </si>
+  <si>
+    <t>Price of capital</t>
+  </si>
+  <si>
+    <t>Rental price of capital</t>
+  </si>
+  <si>
+    <t>Households shadow value of wealth</t>
+  </si>
+  <si>
+    <t>Inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Inflation Y/Y</t>
+  </si>
+  <si>
+    <t>Wage inflation Q/Q</t>
+  </si>
+  <si>
+    <t>Real marginal cost</t>
+  </si>
+  <si>
+    <t>Measurement error on price inflation</t>
+  </si>
+  <si>
+    <t>Measurement error on wage inflation</t>
+  </si>
+  <si>
+    <t>Consumption demand shock</t>
+  </si>
+  <si>
+    <t>Cost push shock</t>
+  </si>
+  <si>
+    <t>Productivity shock</t>
+  </si>
+  <si>
+    <t>Policy shock</t>
+  </si>
+  <si>
+    <t>Long-term rate shock</t>
+  </si>
+  <si>
+    <t>Wage shock</t>
+  </si>
+  <si>
+    <t>Long run growth</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Utility of net worth parameter</t>
+  </si>
+  <si>
+    <t>Labor share</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Fixed level of capital</t>
+  </si>
+  <si>
+    <t>Inflation target</t>
+  </si>
+  <si>
+    <t>Elasticity of substitution in monopoly markets</t>
+  </si>
+  <si>
+    <t>Inverse elasticity of labor supply</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Wage stickiness</t>
+  </si>
+  <si>
+    <t>Price stickiness</t>
+  </si>
+  <si>
+    <t>Autoregression in productivity</t>
+  </si>
+  <si>
+    <t>Autoregression in short rate</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to inflation</t>
+  </si>
+  <si>
+    <t>Monetary policy reaction to labor</t>
+  </si>
+  <si>
+    <t>Autoregression in 5-year term premium</t>
+  </si>
+  <si>
+    <t>Intercept in short rate</t>
+  </si>
+  <si>
+    <t>Intercept in long rate</t>
+  </si>
+  <si>
+    <t>Intercept in inflation rate</t>
+  </si>
+  <si>
+    <t>Intercept in output growth rate</t>
+  </si>
+  <si>
+    <t>Intercept in wage inflation rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
   </si>
   <si>
     <t>Row</t>
@@ -15561,7 +15942,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -15593,11 +15974,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -15623,6 +16006,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15646,30 +16031,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5049</v>
+        <v>5176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5109</v>
+        <v>5236</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5110</v>
+        <v>5237</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5111</v>
+        <v>5238</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5112</v>
+        <v>5239</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5113</v>
+        <v>5240</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5119</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5050</v>
+        <v>5177</v>
       </c>
       <c r="B2" s="0">
         <v>3.0199999999999783</v>
@@ -15684,15 +16069,15 @@
         <v>-1.1847197195174198e-17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5114</v>
+        <v>5241</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5120</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5051</v>
+        <v>5178</v>
       </c>
       <c r="B3" s="0">
         <v>3.0199999999999783</v>
@@ -15707,15 +16092,15 @@
         <v>2.9407819612755486e-18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>5114</v>
+        <v>5241</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>5121</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5052</v>
+        <v>5179</v>
       </c>
       <c r="B4" s="0">
         <v>2.000000000000024</v>
@@ -15730,15 +16115,15 @@
         <v>-1.0321621083814744e-17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>5114</v>
+        <v>5241</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>5122</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5053</v>
+        <v>5180</v>
       </c>
       <c r="B5" s="0">
         <v>2.4999999999998579</v>
@@ -15753,15 +16138,15 @@
         <v>1.0629776554815597e-14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>5114</v>
+        <v>5241</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>5123</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5054</v>
+        <v>5181</v>
       </c>
       <c r="B6" s="0">
         <v>4.5499999999999652</v>
@@ -15776,15 +16161,15 @@
         <v>1.0520358363670791e-14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>5114</v>
+        <v>5241</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>5124</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5055</v>
+        <v>5182</v>
       </c>
       <c r="B7" s="0">
         <v>1.5519465293293773</v>
@@ -15799,13 +16184,13 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5056</v>
+        <v>5183</v>
       </c>
       <c r="B8" s="0">
         <v>1.5519465293293773</v>
@@ -15820,15 +16205,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>5125</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5057</v>
+        <v>5184</v>
       </c>
       <c r="B9" s="0">
         <v>0.74698177564761814</v>
@@ -15843,15 +16228,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>5126</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5058</v>
+        <v>5185</v>
       </c>
       <c r="B10" s="0">
         <v>1.7313525130113012</v>
@@ -15866,15 +16251,15 @@
         <v>1.0099504938362081</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>5127</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5059</v>
+        <v>5186</v>
       </c>
       <c r="B11" s="0">
         <v>0.83333333333333337</v>
@@ -15889,15 +16274,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>5128</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5060</v>
+        <v>5187</v>
       </c>
       <c r="B12" s="0">
         <v>1.5519465293293773</v>
@@ -15912,15 +16297,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>5129</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5061</v>
+        <v>5188</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -15935,15 +16320,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>5130</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5062</v>
+        <v>5189</v>
       </c>
       <c r="B14" s="0">
         <v>1.0061922463256359</v>
@@ -15958,15 +16343,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>5131</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5063</v>
+        <v>5190</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -15981,15 +16366,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>5132</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5064</v>
+        <v>5191</v>
       </c>
       <c r="B16" s="0">
         <v>1.0074659719585326</v>
@@ -16004,15 +16389,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>5133</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5065</v>
+        <v>5192</v>
       </c>
       <c r="B17" s="0">
         <v>1.0024906793143211</v>
@@ -16027,15 +16412,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>5134</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5066</v>
+        <v>5193</v>
       </c>
       <c r="B18" s="0">
         <v>1.0074659719585326</v>
@@ -16050,15 +16435,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>5135</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5067</v>
+        <v>5194</v>
       </c>
       <c r="B19" s="0">
         <v>1.0074659719585326</v>
@@ -16073,15 +16458,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>5115</v>
+        <v>5242</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>5136</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5068</v>
+        <v>5195</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -16096,15 +16481,15 @@
         <v>-6.9234505873394988e-25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>5116</v>
+        <v>5243</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>5137</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5069</v>
+        <v>5196</v>
       </c>
       <c r="B21" s="0">
         <v>1.5311735582263337</v>
@@ -16119,15 +16504,15 @@
         <v>1.0099504938362083</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>5138</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5070</v>
+        <v>5197</v>
       </c>
       <c r="B22" s="0">
         <v>1.0111859095936384</v>
@@ -16142,13 +16527,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5071</v>
+        <v>5198</v>
       </c>
       <c r="B23" s="0">
         <v>0.051731550977645917</v>
@@ -16163,15 +16548,15 @@
         <v>1.0099504938362078</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>5139</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5072</v>
+        <v>5199</v>
       </c>
       <c r="B24" s="0">
         <v>0.64435209661000203</v>
@@ -16186,15 +16571,15 @@
         <v>0.99014754297667418</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>5140</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5073</v>
+        <v>5200</v>
       </c>
       <c r="B25" s="0">
         <v>1.0049629315732038</v>
@@ -16209,15 +16594,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>5141</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5074</v>
+        <v>5201</v>
       </c>
       <c r="B26" s="0">
         <v>1.0200000000000002</v>
@@ -16232,15 +16617,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>5142</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5075</v>
+        <v>5202</v>
       </c>
       <c r="B27" s="0">
         <v>1.0111859095936382</v>
@@ -16255,15 +16640,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>5143</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5076</v>
+        <v>5203</v>
       </c>
       <c r="B28" s="0">
         <v>0.83333333333333337</v>
@@ -16278,15 +16663,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>5117</v>
+        <v>5244</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>5144</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5077</v>
+        <v>5204</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -16302,12 +16687,12 @@
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>5145</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5078</v>
+        <v>5205</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -16323,12 +16708,12 @@
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="s">
-        <v>5146</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5079</v>
+        <v>5206</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -16344,12 +16729,12 @@
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="s">
-        <v>5147</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5080</v>
+        <v>5207</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -16365,12 +16750,12 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>5148</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5081</v>
+        <v>5208</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -16386,12 +16771,12 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="s">
-        <v>5149</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5082</v>
+        <v>5209</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -16407,12 +16792,12 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="s">
-        <v>5150</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5083</v>
+        <v>5210</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -16428,12 +16813,12 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="s">
-        <v>5151</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5084</v>
+        <v>5211</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -16449,12 +16834,12 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="s">
-        <v>5152</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5085</v>
+        <v>5212</v>
       </c>
       <c r="B37" s="0">
         <v>1.0061922463256359</v>
@@ -16470,12 +16855,12 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="s">
-        <v>5153</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5086</v>
+        <v>5213</v>
       </c>
       <c r="B38" s="0">
         <v>0.99622871975463567</v>
@@ -16491,12 +16876,12 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="s">
-        <v>5154</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5087</v>
+        <v>5214</v>
       </c>
       <c r="B39" s="0">
         <v>-0.0074361935641006766</v>
@@ -16512,12 +16897,12 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="s">
-        <v>5155</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5088</v>
+        <v>5215</v>
       </c>
       <c r="B40" s="0">
         <v>0.80000000000000004</v>
@@ -16536,7 +16921,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>5089</v>
+        <v>5216</v>
       </c>
       <c r="B41" s="0">
         <v>0.59999999999999998</v>
@@ -16552,12 +16937,12 @@
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="s">
-        <v>5156</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>5090</v>
+        <v>5217</v>
       </c>
       <c r="B42" s="0">
         <v>0.029999999999999999</v>
@@ -16573,12 +16958,12 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="s">
-        <v>5157</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>5091</v>
+        <v>5218</v>
       </c>
       <c r="B43" s="0">
         <v>10</v>
@@ -16594,12 +16979,12 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="s">
-        <v>5158</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>5092</v>
+        <v>5219</v>
       </c>
       <c r="B44" s="0">
         <v>1.0049629315732038</v>
@@ -16615,12 +17000,12 @@
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="s">
-        <v>5159</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>5093</v>
+        <v>5220</v>
       </c>
       <c r="B45" s="0">
         <v>6</v>
@@ -16636,12 +17021,12 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="s">
-        <v>5160</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>5094</v>
+        <v>5221</v>
       </c>
       <c r="B46" s="0">
         <v>0.25</v>
@@ -16657,12 +17042,12 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="s">
-        <v>5161</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>5095</v>
+        <v>5222</v>
       </c>
       <c r="B47" s="0">
         <v>0.84999999999999998</v>
@@ -16678,12 +17063,12 @@
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="s">
-        <v>5162</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>5096</v>
+        <v>5223</v>
       </c>
       <c r="B48" s="0">
         <v>60</v>
@@ -16699,12 +17084,12 @@
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="s">
-        <v>5163</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>5097</v>
+        <v>5224</v>
       </c>
       <c r="B49" s="0">
         <v>300</v>
@@ -16720,12 +17105,12 @@
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="s">
-        <v>5164</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>5098</v>
+        <v>5225</v>
       </c>
       <c r="B50" s="0">
         <v>0.90000000000000002</v>
@@ -16741,12 +17126,12 @@
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="s">
-        <v>5165</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>5099</v>
+        <v>5226</v>
       </c>
       <c r="B51" s="0">
         <v>0.84999999999999998</v>
@@ -16762,12 +17147,12 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="s">
-        <v>5166</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>5100</v>
+        <v>5227</v>
       </c>
       <c r="B52" s="0">
         <v>4</v>
@@ -16783,12 +17168,12 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="s">
-        <v>5167</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>5101</v>
+        <v>5228</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -16804,12 +17189,12 @@
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="s">
-        <v>5168</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>5102</v>
+        <v>5229</v>
       </c>
       <c r="B54" s="0">
         <v>0.80000000000000004</v>
@@ -16825,12 +17210,12 @@
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="s">
-        <v>5169</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>5103</v>
+        <v>5230</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -16846,12 +17231,12 @@
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="s">
-        <v>5170</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>5104</v>
+        <v>5231</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -16867,12 +17252,12 @@
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="s">
-        <v>5171</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>5105</v>
+        <v>5232</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -16888,12 +17273,12 @@
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="s">
-        <v>5172</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>5106</v>
+        <v>5233</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -16909,12 +17294,12 @@
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0" t="s">
-        <v>5173</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>5107</v>
+        <v>5234</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -16930,12 +17315,12 @@
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0" t="s">
-        <v>5174</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>5108</v>
+        <v>5235</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -16950,10 +17335,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>5118</v>
+        <v>5245</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>5175</v>
+        <v>5302</v>
       </c>
     </row>
   </sheetData>
